--- a/plano_de_carreira/Plano Carreira Simbiose - Desenvolvimento.xlsx
+++ b/plano_de_carreira/Plano Carreira Simbiose - Desenvolvimento.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10210"/>
   <workbookPr date1904="1" checkCompatibility="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macair/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3800" yWindow="0" windowWidth="26320" windowHeight="16300" tabRatio="607"/>
+    <workbookView xWindow="1380" yWindow="460" windowWidth="26320" windowHeight="16300" tabRatio="607" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plano de Crescimento" sheetId="5" r:id="rId1"/>
     <sheet name="Competências Gerais" sheetId="4" r:id="rId2"/>
     <sheet name="Hablidades Específicas" sheetId="8" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="156">
   <si>
     <t>Liderança</t>
   </si>
@@ -155,9 +160,6 @@
     <t>Sólido</t>
   </si>
   <si>
-    <t>Assistente</t>
-  </si>
-  <si>
     <t>I</t>
   </si>
   <si>
@@ -167,37 +169,7 @@
     <t>III</t>
   </si>
   <si>
-    <t>Técnico</t>
-  </si>
-  <si>
-    <t>Analista</t>
-  </si>
-  <si>
-    <t>Coordenador</t>
-  </si>
-  <si>
-    <t>Especialista</t>
-  </si>
-  <si>
     <t>PATAMAR  SALARIAL</t>
-  </si>
-  <si>
-    <t>Master</t>
-  </si>
-  <si>
-    <t>Lento</t>
-  </si>
-  <si>
-    <t>Rapido</t>
-  </si>
-  <si>
-    <t>Moderado</t>
-  </si>
-  <si>
-    <t>Bem Rapido</t>
-  </si>
-  <si>
-    <t>e0</t>
   </si>
   <si>
     <t>as1</t>
@@ -255,24 +227,6 @@
   </si>
   <si>
     <t>Organizacionais</t>
-  </si>
-  <si>
-    <t>Ninja / Master / Jedi</t>
-  </si>
-  <si>
-    <t>Developer Junior</t>
-  </si>
-  <si>
-    <t>Developer Pleno</t>
-  </si>
-  <si>
-    <t>Developer Sênior</t>
-  </si>
-  <si>
-    <t>Developer Especialista</t>
-  </si>
-  <si>
-    <t>Analista de Sistemas</t>
   </si>
   <si>
     <t xml:space="preserve">    COMPETENCIAS  GERAIS  (conjunto de HABILIDADES)</t>
@@ -387,6 +341,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Terceiros</t>
     </r>
@@ -402,9 +357,6 @@
   </si>
   <si>
     <t>Ser pontual com seus agendamentos e responsabilidades. Não atrasar.</t>
-  </si>
-  <si>
-    <t>Trainee</t>
   </si>
   <si>
     <t>Descrição</t>
@@ -541,11 +493,29 @@
   <si>
     <t>Certificação de Algoritmos I do Cursera</t>
   </si>
+  <si>
+    <t>Nível A</t>
+  </si>
+  <si>
+    <t>Nível B</t>
+  </si>
+  <si>
+    <t>Nível C</t>
+  </si>
+  <si>
+    <t>Nível D</t>
+  </si>
+  <si>
+    <t>Nível E</t>
+  </si>
+  <si>
+    <t>Nível F</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
@@ -642,21 +612,24 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="11"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <i/>
       <sz val="18"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -683,25 +656,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,8 +666,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="50">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -1047,19 +1008,6 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom style="medium">
         <color auto="1"/>
@@ -1071,51 +1019,6 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1541,7 +1444,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1575,15 +1478,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1593,13 +1487,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1619,24 +1507,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1650,30 +1520,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1689,13 +1559,13 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1763,16 +1633,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1787,42 +1657,42 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1832,7 +1702,19 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1854,25 +1736,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1887,27 +1766,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1917,258 +1775,243 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="211">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="210" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2243,6 +2086,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2534,1617 +2380,1595 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:XFC151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="13" zeroHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="13" zeroHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="1.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="1.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="2" customWidth="1"/>
     <col min="4" max="4" width="31" style="3" customWidth="1"/>
-    <col min="5" max="12" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="22" width="9.28515625" style="1" customWidth="1"/>
+    <col min="5" max="12" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="9.33203125" style="1" customWidth="1"/>
+    <col min="20" max="21" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.5" style="1" customWidth="1"/>
     <col min="23" max="23" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.7109375" style="1" hidden="1"/>
+    <col min="24" max="16384" width="8.6640625" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="5.25" customHeight="1">
-      <c r="E1" s="35" t="s">
+    <row r="1" spans="1:22" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E1" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="Q1" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="R1" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="S1" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="T1" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="U1" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="V1" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="M1" s="35" t="s">
+    </row>
+    <row r="2" spans="1:22" ht="38" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+    </row>
+    <row r="3" spans="1:22" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+    </row>
+    <row r="4" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="61"/>
+      <c r="B4" s="135" t="s">
         <v>67</v>
       </c>
-      <c r="N1" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="O1" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="P1" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q1" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="R1" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="S1" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="T1" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="U1" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="V1" s="35" t="s">
-        <v>76</v>
-      </c>
+      <c r="C4" s="135"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="139" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" s="140"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="139" t="s">
+        <v>151</v>
+      </c>
+      <c r="I4" s="140"/>
+      <c r="J4" s="141"/>
+      <c r="K4" s="139" t="s">
+        <v>152</v>
+      </c>
+      <c r="L4" s="140"/>
+      <c r="M4" s="141"/>
+      <c r="N4" s="142" t="s">
+        <v>153</v>
+      </c>
+      <c r="O4" s="140"/>
+      <c r="P4" s="143"/>
+      <c r="Q4" s="139" t="s">
+        <v>154</v>
+      </c>
+      <c r="R4" s="140"/>
+      <c r="S4" s="141"/>
+      <c r="T4" s="139" t="s">
+        <v>155</v>
+      </c>
+      <c r="U4" s="140"/>
+      <c r="V4" s="141"/>
     </row>
-    <row r="2" spans="1:22" ht="38" customHeight="1">
-      <c r="C2" s="78" t="s">
-        <v>147</v>
-      </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
+    <row r="5" spans="1:22" s="4" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="61"/>
+      <c r="B5" s="137"/>
+      <c r="C5" s="137"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="144" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="145" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="R5" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="S5" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="T5" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="U5" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="V5" s="35" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="3" spans="1:22" ht="14" thickBot="1">
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-    </row>
-    <row r="4" spans="1:22" s="4" customFormat="1">
-      <c r="A4" s="72"/>
-      <c r="B4" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="150"/>
-      <c r="D4" s="151"/>
-      <c r="E4" s="148" t="str">
-        <f>C76</f>
-        <v>Assistente</v>
-      </c>
-      <c r="F4" s="144"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="143" t="str">
-        <f>C77</f>
-        <v>Técnico</v>
-      </c>
-      <c r="I4" s="144"/>
-      <c r="J4" s="145"/>
-      <c r="K4" s="136" t="str">
-        <f>C78</f>
-        <v>Analista</v>
-      </c>
-      <c r="L4" s="137"/>
-      <c r="M4" s="138"/>
-      <c r="N4" s="146" t="str">
-        <f>C79</f>
-        <v>Coordenador</v>
-      </c>
-      <c r="O4" s="137"/>
-      <c r="P4" s="147"/>
-      <c r="Q4" s="136" t="str">
-        <f>C80</f>
-        <v>Especialista</v>
-      </c>
-      <c r="R4" s="137"/>
-      <c r="S4" s="138"/>
-      <c r="T4" s="136" t="str">
-        <f>C81</f>
-        <v>Master</v>
-      </c>
-      <c r="U4" s="137"/>
-      <c r="V4" s="138"/>
-    </row>
-    <row r="5" spans="1:22" s="4" customFormat="1" ht="14" thickBot="1">
-      <c r="A5" s="72"/>
-      <c r="B5" s="152"/>
-      <c r="C5" s="152"/>
-      <c r="D5" s="153"/>
-      <c r="E5" s="44" t="str">
-        <f>D75</f>
-        <v>I</v>
-      </c>
-      <c r="F5" s="45" t="str">
-        <f>D76</f>
-        <v>II</v>
-      </c>
-      <c r="G5" s="46" t="str">
-        <f>D77</f>
-        <v>III</v>
-      </c>
-      <c r="H5" s="44" t="str">
-        <f>D75</f>
-        <v>I</v>
-      </c>
-      <c r="I5" s="45" t="str">
-        <f>D76</f>
-        <v>II</v>
-      </c>
-      <c r="J5" s="46" t="str">
-        <f>D77</f>
-        <v>III</v>
-      </c>
-      <c r="K5" s="23" t="str">
-        <f>D75</f>
-        <v>I</v>
-      </c>
-      <c r="L5" s="21" t="str">
-        <f>D76</f>
-        <v>II</v>
-      </c>
-      <c r="M5" s="22" t="str">
-        <f>D77</f>
-        <v>III</v>
-      </c>
-      <c r="N5" s="27" t="str">
-        <f>D75</f>
-        <v>I</v>
-      </c>
-      <c r="O5" s="21" t="str">
-        <f>D76</f>
-        <v>II</v>
-      </c>
-      <c r="P5" s="29" t="str">
-        <f>D77</f>
-        <v>III</v>
-      </c>
-      <c r="Q5" s="23" t="str">
-        <f>D75</f>
-        <v>I</v>
-      </c>
-      <c r="R5" s="21" t="str">
-        <f>D76</f>
-        <v>II</v>
-      </c>
-      <c r="S5" s="22" t="str">
-        <f>D77</f>
-        <v>III</v>
-      </c>
-      <c r="T5" s="23" t="str">
-        <f>D75</f>
-        <v>I</v>
-      </c>
-      <c r="U5" s="21" t="str">
-        <f>D76</f>
-        <v>II</v>
-      </c>
-      <c r="V5" s="22" t="str">
-        <f>D77</f>
-        <v>III</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="132" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="21">
         <v>1</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="22">
         <v>2</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="23">
         <v>2</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="24">
         <v>2</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="22">
         <v>3</v>
       </c>
-      <c r="J6" s="30">
+      <c r="J6" s="25">
         <v>3</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="21">
         <v>3</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="22">
         <v>4</v>
       </c>
-      <c r="M6" s="26">
+      <c r="M6" s="23">
         <v>4</v>
       </c>
-      <c r="N6" s="28">
+      <c r="N6" s="24">
         <v>4</v>
       </c>
-      <c r="O6" s="25">
-        <v>5</v>
-      </c>
-      <c r="P6" s="30">
-        <v>5</v>
-      </c>
-      <c r="Q6" s="24">
-        <v>5</v>
-      </c>
-      <c r="R6" s="25">
-        <v>5</v>
-      </c>
-      <c r="S6" s="26">
-        <v>5</v>
-      </c>
-      <c r="T6" s="24">
-        <v>5</v>
-      </c>
-      <c r="U6" s="25">
-        <v>5</v>
-      </c>
-      <c r="V6" s="26">
+      <c r="O6" s="22">
+        <v>5</v>
+      </c>
+      <c r="P6" s="25">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="21">
+        <v>5</v>
+      </c>
+      <c r="R6" s="22">
+        <v>5</v>
+      </c>
+      <c r="S6" s="23">
+        <v>5</v>
+      </c>
+      <c r="T6" s="21">
+        <v>5</v>
+      </c>
+      <c r="U6" s="22">
+        <v>5</v>
+      </c>
+      <c r="V6" s="23">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="11" customFormat="1">
+    <row r="7" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="141"/>
+      <c r="C7" s="133"/>
       <c r="D7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="21">
         <v>2</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="22">
         <v>2</v>
       </c>
-      <c r="G7" s="26">
-        <v>2</v>
-      </c>
-      <c r="H7" s="28">
+      <c r="G7" s="23">
         <v>3</v>
       </c>
-      <c r="I7" s="25">
+      <c r="H7" s="24">
         <v>3</v>
       </c>
-      <c r="J7" s="30">
+      <c r="I7" s="22">
         <v>3</v>
       </c>
-      <c r="K7" s="24">
+      <c r="J7" s="25">
+        <v>3</v>
+      </c>
+      <c r="K7" s="21">
         <v>4</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="22">
         <v>4</v>
       </c>
-      <c r="M7" s="26">
+      <c r="M7" s="23">
         <v>4</v>
       </c>
-      <c r="N7" s="28">
-        <v>5</v>
-      </c>
-      <c r="O7" s="25">
-        <v>5</v>
-      </c>
-      <c r="P7" s="30">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="24">
-        <v>5</v>
-      </c>
-      <c r="R7" s="25">
-        <v>5</v>
-      </c>
-      <c r="S7" s="26">
-        <v>5</v>
-      </c>
-      <c r="T7" s="24">
-        <v>5</v>
-      </c>
-      <c r="U7" s="25">
-        <v>5</v>
-      </c>
-      <c r="V7" s="26">
+      <c r="N7" s="24">
+        <v>5</v>
+      </c>
+      <c r="O7" s="22">
+        <v>5</v>
+      </c>
+      <c r="P7" s="25">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="21">
+        <v>5</v>
+      </c>
+      <c r="R7" s="22">
+        <v>5</v>
+      </c>
+      <c r="S7" s="23">
+        <v>5</v>
+      </c>
+      <c r="T7" s="21">
+        <v>5</v>
+      </c>
+      <c r="U7" s="22">
+        <v>5</v>
+      </c>
+      <c r="V7" s="23">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
-      <c r="C8" s="139" t="s">
+      <c r="C8" s="131" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="21">
         <v>1</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="22">
         <v>2</v>
       </c>
-      <c r="G8" s="26">
-        <v>2</v>
-      </c>
-      <c r="H8" s="28">
+      <c r="G8" s="23">
         <v>3</v>
       </c>
-      <c r="I8" s="25">
+      <c r="H8" s="24">
         <v>3</v>
       </c>
-      <c r="J8" s="30">
+      <c r="I8" s="22">
         <v>3</v>
       </c>
-      <c r="K8" s="24">
+      <c r="J8" s="25">
+        <v>3</v>
+      </c>
+      <c r="K8" s="21">
         <v>4</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="22">
         <v>4</v>
       </c>
-      <c r="M8" s="26">
+      <c r="M8" s="23">
         <v>4</v>
       </c>
-      <c r="N8" s="28">
-        <v>5</v>
-      </c>
-      <c r="O8" s="25">
-        <v>5</v>
-      </c>
-      <c r="P8" s="30">
-        <v>5</v>
-      </c>
-      <c r="Q8" s="24">
-        <v>5</v>
-      </c>
-      <c r="R8" s="25">
-        <v>5</v>
-      </c>
-      <c r="S8" s="26">
-        <v>5</v>
-      </c>
-      <c r="T8" s="24">
-        <v>5</v>
-      </c>
-      <c r="U8" s="25">
-        <v>5</v>
-      </c>
-      <c r="V8" s="26">
+      <c r="N8" s="24">
+        <v>5</v>
+      </c>
+      <c r="O8" s="22">
+        <v>5</v>
+      </c>
+      <c r="P8" s="25">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="21">
+        <v>5</v>
+      </c>
+      <c r="R8" s="22">
+        <v>5</v>
+      </c>
+      <c r="S8" s="23">
+        <v>5</v>
+      </c>
+      <c r="T8" s="21">
+        <v>5</v>
+      </c>
+      <c r="U8" s="22">
+        <v>5</v>
+      </c>
+      <c r="V8" s="23">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="11" customFormat="1">
+    <row r="9" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
-      <c r="C9" s="140"/>
+      <c r="C9" s="132"/>
       <c r="D9" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="21">
         <v>2</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="22">
         <v>2</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="23">
         <v>3</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="24">
         <v>3</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="22">
         <v>4</v>
       </c>
-      <c r="J9" s="30">
+      <c r="J9" s="25">
         <v>4</v>
       </c>
-      <c r="K9" s="24">
-        <v>5</v>
-      </c>
-      <c r="L9" s="25">
-        <v>5</v>
-      </c>
-      <c r="M9" s="26">
-        <v>5</v>
-      </c>
-      <c r="N9" s="28">
-        <v>5</v>
-      </c>
-      <c r="O9" s="25">
-        <v>5</v>
-      </c>
-      <c r="P9" s="30">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="24">
-        <v>5</v>
-      </c>
-      <c r="R9" s="25">
-        <v>5</v>
-      </c>
-      <c r="S9" s="26">
-        <v>5</v>
-      </c>
-      <c r="T9" s="24">
-        <v>5</v>
-      </c>
-      <c r="U9" s="25">
-        <v>5</v>
-      </c>
-      <c r="V9" s="26">
+      <c r="K9" s="21">
+        <v>5</v>
+      </c>
+      <c r="L9" s="22">
+        <v>5</v>
+      </c>
+      <c r="M9" s="23">
+        <v>5</v>
+      </c>
+      <c r="N9" s="24">
+        <v>5</v>
+      </c>
+      <c r="O9" s="22">
+        <v>5</v>
+      </c>
+      <c r="P9" s="25">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="21">
+        <v>5</v>
+      </c>
+      <c r="R9" s="22">
+        <v>5</v>
+      </c>
+      <c r="S9" s="23">
+        <v>5</v>
+      </c>
+      <c r="T9" s="21">
+        <v>5</v>
+      </c>
+      <c r="U9" s="22">
+        <v>5</v>
+      </c>
+      <c r="V9" s="23">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="11" customFormat="1">
+    <row r="10" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
-      <c r="C10" s="141"/>
+      <c r="C10" s="133"/>
       <c r="D10" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="21">
         <v>1</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="22">
         <v>1</v>
       </c>
-      <c r="G10" s="26">
-        <v>1</v>
-      </c>
-      <c r="H10" s="28">
+      <c r="G10" s="23">
         <v>2</v>
       </c>
-      <c r="I10" s="25">
+      <c r="H10" s="24">
         <v>2</v>
       </c>
-      <c r="J10" s="30">
+      <c r="I10" s="22">
         <v>2</v>
       </c>
-      <c r="K10" s="24">
+      <c r="J10" s="25">
+        <v>2</v>
+      </c>
+      <c r="K10" s="21">
         <v>3</v>
       </c>
-      <c r="L10" s="25">
+      <c r="L10" s="22">
         <v>3</v>
       </c>
-      <c r="M10" s="26">
+      <c r="M10" s="23">
         <v>3</v>
       </c>
-      <c r="N10" s="28">
+      <c r="N10" s="24">
         <v>4</v>
       </c>
-      <c r="O10" s="25">
+      <c r="O10" s="22">
         <v>4</v>
       </c>
-      <c r="P10" s="30">
+      <c r="P10" s="25">
         <v>4</v>
       </c>
-      <c r="Q10" s="24">
-        <v>5</v>
-      </c>
-      <c r="R10" s="25">
-        <v>5</v>
-      </c>
-      <c r="S10" s="26">
-        <v>5</v>
-      </c>
-      <c r="T10" s="24">
-        <v>5</v>
-      </c>
-      <c r="U10" s="25">
-        <v>5</v>
-      </c>
-      <c r="V10" s="26">
+      <c r="Q10" s="21">
+        <v>5</v>
+      </c>
+      <c r="R10" s="22">
+        <v>5</v>
+      </c>
+      <c r="S10" s="23">
+        <v>5</v>
+      </c>
+      <c r="T10" s="21">
+        <v>5</v>
+      </c>
+      <c r="U10" s="22">
+        <v>5</v>
+      </c>
+      <c r="V10" s="23">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
-      <c r="C11" s="139" t="s">
+      <c r="C11" s="131" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="21">
         <v>2</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="22">
         <v>2</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="23">
         <v>3</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="24">
         <v>3</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="22">
         <v>4</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="25">
         <v>4</v>
       </c>
-      <c r="K11" s="24">
-        <v>5</v>
-      </c>
-      <c r="L11" s="25">
-        <v>5</v>
-      </c>
-      <c r="M11" s="26">
-        <v>5</v>
-      </c>
-      <c r="N11" s="28">
-        <v>5</v>
-      </c>
-      <c r="O11" s="25">
-        <v>5</v>
-      </c>
-      <c r="P11" s="30">
-        <v>5</v>
-      </c>
-      <c r="Q11" s="24">
-        <v>5</v>
-      </c>
-      <c r="R11" s="25">
-        <v>5</v>
-      </c>
-      <c r="S11" s="26">
-        <v>5</v>
-      </c>
-      <c r="T11" s="24">
-        <v>5</v>
-      </c>
-      <c r="U11" s="25">
-        <v>5</v>
-      </c>
-      <c r="V11" s="26">
+      <c r="K11" s="21">
+        <v>5</v>
+      </c>
+      <c r="L11" s="22">
+        <v>5</v>
+      </c>
+      <c r="M11" s="23">
+        <v>5</v>
+      </c>
+      <c r="N11" s="24">
+        <v>5</v>
+      </c>
+      <c r="O11" s="22">
+        <v>5</v>
+      </c>
+      <c r="P11" s="25">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="21">
+        <v>5</v>
+      </c>
+      <c r="R11" s="22">
+        <v>5</v>
+      </c>
+      <c r="S11" s="23">
+        <v>5</v>
+      </c>
+      <c r="T11" s="21">
+        <v>5</v>
+      </c>
+      <c r="U11" s="22">
+        <v>5</v>
+      </c>
+      <c r="V11" s="23">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="11" customFormat="1">
+    <row r="12" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
-      <c r="C12" s="140"/>
-      <c r="D12" s="73" t="s">
-        <v>120</v>
-      </c>
-      <c r="E12" s="24">
-        <v>5</v>
-      </c>
-      <c r="F12" s="25">
-        <v>5</v>
-      </c>
-      <c r="G12" s="26">
-        <v>5</v>
-      </c>
-      <c r="H12" s="28">
-        <v>5</v>
-      </c>
-      <c r="I12" s="25">
-        <v>5</v>
-      </c>
-      <c r="J12" s="30">
-        <v>5</v>
-      </c>
-      <c r="K12" s="24">
-        <v>5</v>
-      </c>
-      <c r="L12" s="25">
-        <v>5</v>
-      </c>
-      <c r="M12" s="26">
-        <v>5</v>
-      </c>
-      <c r="N12" s="28">
-        <v>5</v>
-      </c>
-      <c r="O12" s="25">
-        <v>5</v>
-      </c>
-      <c r="P12" s="30">
-        <v>5</v>
-      </c>
-      <c r="Q12" s="24">
-        <v>5</v>
-      </c>
-      <c r="R12" s="25">
-        <v>5</v>
-      </c>
-      <c r="S12" s="26">
-        <v>5</v>
-      </c>
-      <c r="T12" s="24">
-        <v>5</v>
-      </c>
-      <c r="U12" s="25">
-        <v>5</v>
-      </c>
-      <c r="V12" s="26">
+      <c r="C12" s="132"/>
+      <c r="D12" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="21">
+        <v>5</v>
+      </c>
+      <c r="F12" s="22">
+        <v>5</v>
+      </c>
+      <c r="G12" s="23">
+        <v>5</v>
+      </c>
+      <c r="H12" s="24">
+        <v>5</v>
+      </c>
+      <c r="I12" s="22">
+        <v>5</v>
+      </c>
+      <c r="J12" s="25">
+        <v>5</v>
+      </c>
+      <c r="K12" s="21">
+        <v>5</v>
+      </c>
+      <c r="L12" s="22">
+        <v>5</v>
+      </c>
+      <c r="M12" s="23">
+        <v>5</v>
+      </c>
+      <c r="N12" s="24">
+        <v>5</v>
+      </c>
+      <c r="O12" s="22">
+        <v>5</v>
+      </c>
+      <c r="P12" s="25">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="21">
+        <v>5</v>
+      </c>
+      <c r="R12" s="22">
+        <v>5</v>
+      </c>
+      <c r="S12" s="23">
+        <v>5</v>
+      </c>
+      <c r="T12" s="21">
+        <v>5</v>
+      </c>
+      <c r="U12" s="22">
+        <v>5</v>
+      </c>
+      <c r="V12" s="23">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="11" customFormat="1">
+    <row r="13" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="73" t="s">
-        <v>121</v>
-      </c>
-      <c r="E13" s="24">
+      <c r="C13" s="132"/>
+      <c r="D13" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="21">
         <v>4</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="22">
         <v>4</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="23">
         <v>4</v>
       </c>
-      <c r="H13" s="28">
-        <v>5</v>
-      </c>
-      <c r="I13" s="25">
-        <v>5</v>
-      </c>
-      <c r="J13" s="30">
-        <v>5</v>
-      </c>
-      <c r="K13" s="24">
-        <v>5</v>
-      </c>
-      <c r="L13" s="25">
-        <v>5</v>
-      </c>
-      <c r="M13" s="26">
-        <v>5</v>
-      </c>
-      <c r="N13" s="28">
-        <v>5</v>
-      </c>
-      <c r="O13" s="25">
-        <v>5</v>
-      </c>
-      <c r="P13" s="30">
-        <v>5</v>
-      </c>
-      <c r="Q13" s="24">
-        <v>5</v>
-      </c>
-      <c r="R13" s="25">
-        <v>5</v>
-      </c>
-      <c r="S13" s="26">
-        <v>5</v>
-      </c>
-      <c r="T13" s="24">
-        <v>5</v>
-      </c>
-      <c r="U13" s="25">
-        <v>5</v>
-      </c>
-      <c r="V13" s="26">
+      <c r="H13" s="24">
+        <v>5</v>
+      </c>
+      <c r="I13" s="22">
+        <v>5</v>
+      </c>
+      <c r="J13" s="25">
+        <v>5</v>
+      </c>
+      <c r="K13" s="21">
+        <v>5</v>
+      </c>
+      <c r="L13" s="22">
+        <v>5</v>
+      </c>
+      <c r="M13" s="23">
+        <v>5</v>
+      </c>
+      <c r="N13" s="24">
+        <v>5</v>
+      </c>
+      <c r="O13" s="22">
+        <v>5</v>
+      </c>
+      <c r="P13" s="25">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="21">
+        <v>5</v>
+      </c>
+      <c r="R13" s="22">
+        <v>5</v>
+      </c>
+      <c r="S13" s="23">
+        <v>5</v>
+      </c>
+      <c r="T13" s="21">
+        <v>5</v>
+      </c>
+      <c r="U13" s="22">
+        <v>5</v>
+      </c>
+      <c r="V13" s="23">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="11" customFormat="1">
+    <row r="14" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
-      <c r="C14" s="140"/>
+      <c r="C14" s="132"/>
       <c r="D14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="21">
         <v>1</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="22">
         <v>2</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="23">
         <v>2</v>
       </c>
-      <c r="H14" s="28">
+      <c r="H14" s="24">
         <v>2</v>
       </c>
-      <c r="I14" s="25">
+      <c r="I14" s="22">
         <v>3</v>
       </c>
-      <c r="J14" s="30">
+      <c r="J14" s="25">
         <v>3</v>
       </c>
-      <c r="K14" s="24">
+      <c r="K14" s="21">
         <v>3</v>
       </c>
-      <c r="L14" s="25">
+      <c r="L14" s="22">
         <v>4</v>
       </c>
-      <c r="M14" s="26">
+      <c r="M14" s="23">
         <v>4</v>
       </c>
-      <c r="N14" s="28">
+      <c r="N14" s="24">
         <v>4</v>
       </c>
-      <c r="O14" s="25">
-        <v>5</v>
-      </c>
-      <c r="P14" s="30">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="24">
-        <v>5</v>
-      </c>
-      <c r="R14" s="25">
-        <v>5</v>
-      </c>
-      <c r="S14" s="26">
-        <v>5</v>
-      </c>
-      <c r="T14" s="24">
-        <v>5</v>
-      </c>
-      <c r="U14" s="25">
-        <v>5</v>
-      </c>
-      <c r="V14" s="26">
+      <c r="O14" s="22">
+        <v>5</v>
+      </c>
+      <c r="P14" s="25">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="21">
+        <v>5</v>
+      </c>
+      <c r="R14" s="22">
+        <v>5</v>
+      </c>
+      <c r="S14" s="23">
+        <v>5</v>
+      </c>
+      <c r="T14" s="21">
+        <v>5</v>
+      </c>
+      <c r="U14" s="22">
+        <v>5</v>
+      </c>
+      <c r="V14" s="23">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="11" customFormat="1">
+    <row r="15" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
-      <c r="C15" s="140"/>
+      <c r="C15" s="132"/>
       <c r="D15" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="21">
         <v>2</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="22">
         <v>2</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="23">
         <v>2</v>
       </c>
-      <c r="H15" s="28">
+      <c r="H15" s="24">
         <v>3</v>
       </c>
-      <c r="I15" s="25">
+      <c r="I15" s="22">
         <v>3</v>
       </c>
-      <c r="J15" s="30">
+      <c r="J15" s="25">
         <v>3</v>
       </c>
-      <c r="K15" s="24">
-        <v>3</v>
-      </c>
-      <c r="L15" s="25">
-        <v>3</v>
-      </c>
-      <c r="M15" s="26">
-        <v>3</v>
-      </c>
-      <c r="N15" s="28">
+      <c r="K15" s="21">
         <v>4</v>
       </c>
-      <c r="O15" s="25">
+      <c r="L15" s="22">
         <v>4</v>
       </c>
-      <c r="P15" s="30">
+      <c r="M15" s="23">
         <v>4</v>
       </c>
-      <c r="Q15" s="24">
-        <v>5</v>
-      </c>
-      <c r="R15" s="25">
-        <v>5</v>
-      </c>
-      <c r="S15" s="26">
-        <v>5</v>
-      </c>
-      <c r="T15" s="24">
-        <v>5</v>
-      </c>
-      <c r="U15" s="25">
-        <v>5</v>
-      </c>
-      <c r="V15" s="26">
+      <c r="N15" s="24">
+        <v>4</v>
+      </c>
+      <c r="O15" s="22">
+        <v>4</v>
+      </c>
+      <c r="P15" s="25">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="21">
+        <v>5</v>
+      </c>
+      <c r="R15" s="22">
+        <v>5</v>
+      </c>
+      <c r="S15" s="23">
+        <v>5</v>
+      </c>
+      <c r="T15" s="21">
+        <v>5</v>
+      </c>
+      <c r="U15" s="22">
+        <v>5</v>
+      </c>
+      <c r="V15" s="23">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="11" customFormat="1">
+    <row r="16" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
-      <c r="C16" s="140"/>
+      <c r="C16" s="132"/>
       <c r="D16" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="24">
-        <v>5</v>
-      </c>
-      <c r="F16" s="25">
-        <v>5</v>
-      </c>
-      <c r="G16" s="26">
-        <v>5</v>
-      </c>
-      <c r="H16" s="24">
-        <v>5</v>
-      </c>
-      <c r="I16" s="25">
-        <v>5</v>
-      </c>
-      <c r="J16" s="26">
-        <v>5</v>
-      </c>
-      <c r="K16" s="24">
-        <v>5</v>
-      </c>
-      <c r="L16" s="25">
-        <v>5</v>
-      </c>
-      <c r="M16" s="26">
-        <v>5</v>
-      </c>
-      <c r="N16" s="24">
-        <v>5</v>
-      </c>
-      <c r="O16" s="25">
-        <v>5</v>
-      </c>
-      <c r="P16" s="26">
-        <v>5</v>
-      </c>
-      <c r="Q16" s="24">
-        <v>5</v>
-      </c>
-      <c r="R16" s="25">
-        <v>5</v>
-      </c>
-      <c r="S16" s="26">
-        <v>5</v>
-      </c>
-      <c r="T16" s="24">
-        <v>5</v>
-      </c>
-      <c r="U16" s="25">
-        <v>5</v>
-      </c>
-      <c r="V16" s="26">
+      <c r="E16" s="21">
+        <v>5</v>
+      </c>
+      <c r="F16" s="22">
+        <v>5</v>
+      </c>
+      <c r="G16" s="23">
+        <v>5</v>
+      </c>
+      <c r="H16" s="21">
+        <v>5</v>
+      </c>
+      <c r="I16" s="22">
+        <v>5</v>
+      </c>
+      <c r="J16" s="23">
+        <v>5</v>
+      </c>
+      <c r="K16" s="21">
+        <v>5</v>
+      </c>
+      <c r="L16" s="22">
+        <v>5</v>
+      </c>
+      <c r="M16" s="23">
+        <v>5</v>
+      </c>
+      <c r="N16" s="21">
+        <v>5</v>
+      </c>
+      <c r="O16" s="22">
+        <v>5</v>
+      </c>
+      <c r="P16" s="23">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="21">
+        <v>5</v>
+      </c>
+      <c r="R16" s="22">
+        <v>5</v>
+      </c>
+      <c r="S16" s="23">
+        <v>5</v>
+      </c>
+      <c r="T16" s="21">
+        <v>5</v>
+      </c>
+      <c r="U16" s="22">
+        <v>5</v>
+      </c>
+      <c r="V16" s="23">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:16383" s="11" customFormat="1">
+    <row r="17" spans="1:16383" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
-      <c r="C17" s="140"/>
+      <c r="C17" s="132"/>
       <c r="D17" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="21">
         <v>2</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="22">
         <v>2</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="23">
         <v>3</v>
       </c>
-      <c r="H17" s="28">
+      <c r="H17" s="24">
         <v>3</v>
       </c>
-      <c r="I17" s="25">
+      <c r="I17" s="22">
         <v>4</v>
       </c>
-      <c r="J17" s="30">
+      <c r="J17" s="25">
         <v>4</v>
       </c>
-      <c r="K17" s="24">
-        <v>5</v>
-      </c>
-      <c r="L17" s="25">
-        <v>5</v>
-      </c>
-      <c r="M17" s="26">
-        <v>5</v>
-      </c>
-      <c r="N17" s="28">
-        <v>5</v>
-      </c>
-      <c r="O17" s="25">
-        <v>5</v>
-      </c>
-      <c r="P17" s="30">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="24">
-        <v>5</v>
-      </c>
-      <c r="R17" s="25">
-        <v>5</v>
-      </c>
-      <c r="S17" s="26">
-        <v>5</v>
-      </c>
-      <c r="T17" s="24">
-        <v>5</v>
-      </c>
-      <c r="U17" s="25">
-        <v>5</v>
-      </c>
-      <c r="V17" s="26">
+      <c r="K17" s="21">
+        <v>5</v>
+      </c>
+      <c r="L17" s="22">
+        <v>5</v>
+      </c>
+      <c r="M17" s="23">
+        <v>5</v>
+      </c>
+      <c r="N17" s="24">
+        <v>5</v>
+      </c>
+      <c r="O17" s="22">
+        <v>5</v>
+      </c>
+      <c r="P17" s="25">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="21">
+        <v>5</v>
+      </c>
+      <c r="R17" s="22">
+        <v>5</v>
+      </c>
+      <c r="S17" s="23">
+        <v>5</v>
+      </c>
+      <c r="T17" s="21">
+        <v>5</v>
+      </c>
+      <c r="U17" s="22">
+        <v>5</v>
+      </c>
+      <c r="V17" s="23">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:16383" s="11" customFormat="1">
+    <row r="18" spans="1:16383" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
-      <c r="C18" s="140"/>
+      <c r="C18" s="132"/>
       <c r="D18" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="21">
         <v>2</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="22">
         <v>2</v>
       </c>
-      <c r="G18" s="26">
-        <v>2</v>
-      </c>
-      <c r="H18" s="28">
+      <c r="G18" s="23">
         <v>3</v>
       </c>
-      <c r="I18" s="25">
-        <v>3</v>
-      </c>
-      <c r="J18" s="30">
-        <v>3</v>
-      </c>
-      <c r="K18" s="24">
-        <v>3</v>
-      </c>
-      <c r="L18" s="25">
+      <c r="H18" s="24">
         <v>4</v>
       </c>
-      <c r="M18" s="26">
+      <c r="I18" s="22">
         <v>4</v>
       </c>
-      <c r="N18" s="28">
+      <c r="J18" s="25">
         <v>4</v>
       </c>
-      <c r="O18" s="25">
-        <v>5</v>
-      </c>
-      <c r="P18" s="30">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="24">
-        <v>5</v>
-      </c>
-      <c r="R18" s="25">
-        <v>5</v>
-      </c>
-      <c r="S18" s="26">
-        <v>5</v>
-      </c>
-      <c r="T18" s="24">
-        <v>5</v>
-      </c>
-      <c r="U18" s="25">
-        <v>5</v>
-      </c>
-      <c r="V18" s="26">
+      <c r="K18" s="21">
+        <v>5</v>
+      </c>
+      <c r="L18" s="22">
+        <v>5</v>
+      </c>
+      <c r="M18" s="23">
+        <v>5</v>
+      </c>
+      <c r="N18" s="24">
+        <v>5</v>
+      </c>
+      <c r="O18" s="22">
+        <v>5</v>
+      </c>
+      <c r="P18" s="25">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="21">
+        <v>5</v>
+      </c>
+      <c r="R18" s="22">
+        <v>5</v>
+      </c>
+      <c r="S18" s="23">
+        <v>5</v>
+      </c>
+      <c r="T18" s="21">
+        <v>5</v>
+      </c>
+      <c r="U18" s="22">
+        <v>5</v>
+      </c>
+      <c r="V18" s="23">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:16383" s="11" customFormat="1">
+    <row r="19" spans="1:16383" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
-      <c r="C19" s="141"/>
+      <c r="C19" s="133"/>
       <c r="D19" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="21">
         <v>2</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="22">
         <v>3</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="23">
         <v>3</v>
       </c>
-      <c r="H19" s="28">
-        <v>3</v>
-      </c>
-      <c r="I19" s="25">
+      <c r="H19" s="24">
         <v>4</v>
       </c>
-      <c r="J19" s="30">
+      <c r="I19" s="22">
         <v>4</v>
       </c>
-      <c r="K19" s="24">
-        <v>5</v>
-      </c>
-      <c r="L19" s="25">
-        <v>5</v>
-      </c>
-      <c r="M19" s="26">
-        <v>5</v>
-      </c>
-      <c r="N19" s="28">
-        <v>5</v>
-      </c>
-      <c r="O19" s="25">
-        <v>5</v>
-      </c>
-      <c r="P19" s="30">
-        <v>5</v>
-      </c>
-      <c r="Q19" s="24">
-        <v>5</v>
-      </c>
-      <c r="R19" s="25">
-        <v>5</v>
-      </c>
-      <c r="S19" s="26">
-        <v>5</v>
-      </c>
-      <c r="T19" s="24">
-        <v>5</v>
-      </c>
-      <c r="U19" s="25">
-        <v>5</v>
-      </c>
-      <c r="V19" s="26">
+      <c r="J19" s="25">
+        <v>4</v>
+      </c>
+      <c r="K19" s="21">
+        <v>5</v>
+      </c>
+      <c r="L19" s="22">
+        <v>5</v>
+      </c>
+      <c r="M19" s="23">
+        <v>5</v>
+      </c>
+      <c r="N19" s="24">
+        <v>5</v>
+      </c>
+      <c r="O19" s="22">
+        <v>5</v>
+      </c>
+      <c r="P19" s="25">
+        <v>5</v>
+      </c>
+      <c r="Q19" s="21">
+        <v>5</v>
+      </c>
+      <c r="R19" s="22">
+        <v>5</v>
+      </c>
+      <c r="S19" s="23">
+        <v>5</v>
+      </c>
+      <c r="T19" s="21">
+        <v>5</v>
+      </c>
+      <c r="U19" s="22">
+        <v>5</v>
+      </c>
+      <c r="V19" s="23">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:16383">
+    <row r="20" spans="1:16383" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
-      <c r="C20" s="139" t="s">
-        <v>77</v>
+      <c r="C20" s="131" t="s">
+        <v>66</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="21">
         <v>1</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="22">
         <v>2</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="23">
         <v>2</v>
       </c>
-      <c r="H20" s="28">
+      <c r="H20" s="24">
         <v>3</v>
       </c>
-      <c r="I20" s="25">
+      <c r="I20" s="22">
         <v>3</v>
       </c>
-      <c r="J20" s="30">
+      <c r="J20" s="25">
         <v>3</v>
       </c>
-      <c r="K20" s="24">
+      <c r="K20" s="21">
         <v>4</v>
       </c>
-      <c r="L20" s="25">
+      <c r="L20" s="22">
         <v>4</v>
       </c>
-      <c r="M20" s="26">
+      <c r="M20" s="23">
         <v>4</v>
       </c>
-      <c r="N20" s="28">
-        <v>5</v>
-      </c>
-      <c r="O20" s="25">
-        <v>5</v>
-      </c>
-      <c r="P20" s="30">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="24">
-        <v>5</v>
-      </c>
-      <c r="R20" s="25">
-        <v>5</v>
-      </c>
-      <c r="S20" s="26">
-        <v>5</v>
-      </c>
-      <c r="T20" s="24">
-        <v>5</v>
-      </c>
-      <c r="U20" s="25">
-        <v>5</v>
-      </c>
-      <c r="V20" s="26">
+      <c r="N20" s="24">
+        <v>5</v>
+      </c>
+      <c r="O20" s="22">
+        <v>5</v>
+      </c>
+      <c r="P20" s="25">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="21">
+        <v>5</v>
+      </c>
+      <c r="R20" s="22">
+        <v>5</v>
+      </c>
+      <c r="S20" s="23">
+        <v>5</v>
+      </c>
+      <c r="T20" s="21">
+        <v>5</v>
+      </c>
+      <c r="U20" s="22">
+        <v>5</v>
+      </c>
+      <c r="V20" s="23">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:16383" s="11" customFormat="1">
+    <row r="21" spans="1:16383" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
-      <c r="C21" s="140"/>
+      <c r="C21" s="132"/>
       <c r="D21" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="21">
         <v>1</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="22">
         <v>2</v>
       </c>
-      <c r="G21" s="26">
+      <c r="G21" s="23">
         <v>2</v>
       </c>
-      <c r="H21" s="28">
+      <c r="H21" s="24">
         <v>2</v>
       </c>
-      <c r="I21" s="25">
+      <c r="I21" s="22">
         <v>3</v>
       </c>
-      <c r="J21" s="30">
+      <c r="J21" s="25">
         <v>3</v>
       </c>
-      <c r="K21" s="24">
+      <c r="K21" s="21">
         <v>3</v>
       </c>
-      <c r="L21" s="25">
+      <c r="L21" s="22">
         <v>4</v>
       </c>
-      <c r="M21" s="26">
+      <c r="M21" s="23">
         <v>4</v>
       </c>
-      <c r="N21" s="28">
+      <c r="N21" s="24">
         <v>4</v>
       </c>
-      <c r="O21" s="25">
-        <v>5</v>
-      </c>
-      <c r="P21" s="30">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="24">
-        <v>5</v>
-      </c>
-      <c r="R21" s="25">
-        <v>5</v>
-      </c>
-      <c r="S21" s="26">
-        <v>5</v>
-      </c>
-      <c r="T21" s="24">
-        <v>5</v>
-      </c>
-      <c r="U21" s="25">
-        <v>5</v>
-      </c>
-      <c r="V21" s="26">
+      <c r="O21" s="22">
+        <v>5</v>
+      </c>
+      <c r="P21" s="25">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="21">
+        <v>5</v>
+      </c>
+      <c r="R21" s="22">
+        <v>5</v>
+      </c>
+      <c r="S21" s="23">
+        <v>5</v>
+      </c>
+      <c r="T21" s="21">
+        <v>5</v>
+      </c>
+      <c r="U21" s="22">
+        <v>5</v>
+      </c>
+      <c r="V21" s="23">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:16383" s="11" customFormat="1">
+    <row r="22" spans="1:16383" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
-      <c r="C22" s="140"/>
+      <c r="C22" s="132"/>
       <c r="D22" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="21">
         <v>1</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="22">
         <v>2</v>
       </c>
-      <c r="G22" s="26">
+      <c r="G22" s="23">
         <v>2</v>
       </c>
-      <c r="H22" s="28">
+      <c r="H22" s="24">
         <v>2</v>
       </c>
-      <c r="I22" s="25">
+      <c r="I22" s="22">
         <v>3</v>
       </c>
-      <c r="J22" s="30">
+      <c r="J22" s="25">
         <v>3</v>
       </c>
-      <c r="K22" s="24">
+      <c r="K22" s="21">
         <v>3</v>
       </c>
-      <c r="L22" s="25">
+      <c r="L22" s="22">
         <v>4</v>
       </c>
-      <c r="M22" s="26">
+      <c r="M22" s="23">
         <v>4</v>
       </c>
-      <c r="N22" s="28">
+      <c r="N22" s="24">
         <v>4</v>
       </c>
-      <c r="O22" s="25">
-        <v>5</v>
-      </c>
-      <c r="P22" s="30">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="24">
-        <v>5</v>
-      </c>
-      <c r="R22" s="25">
-        <v>5</v>
-      </c>
-      <c r="S22" s="26">
-        <v>5</v>
-      </c>
-      <c r="T22" s="24">
-        <v>5</v>
-      </c>
-      <c r="U22" s="25">
-        <v>5</v>
-      </c>
-      <c r="V22" s="26">
+      <c r="O22" s="22">
+        <v>5</v>
+      </c>
+      <c r="P22" s="25">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="21">
+        <v>5</v>
+      </c>
+      <c r="R22" s="22">
+        <v>5</v>
+      </c>
+      <c r="S22" s="23">
+        <v>5</v>
+      </c>
+      <c r="T22" s="21">
+        <v>5</v>
+      </c>
+      <c r="U22" s="22">
+        <v>5</v>
+      </c>
+      <c r="V22" s="23">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:16383" s="11" customFormat="1">
+    <row r="23" spans="1:16383" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
-      <c r="C23" s="140"/>
+      <c r="C23" s="132"/>
       <c r="D23" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="21">
         <v>1</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="22">
         <v>1</v>
       </c>
-      <c r="G23" s="26">
-        <v>1</v>
-      </c>
-      <c r="H23" s="28">
-        <v>1</v>
-      </c>
-      <c r="I23" s="25">
-        <v>1</v>
-      </c>
-      <c r="J23" s="30">
+      <c r="G23" s="23">
         <v>2</v>
       </c>
-      <c r="K23" s="24">
+      <c r="H23" s="24">
         <v>2</v>
       </c>
-      <c r="L23" s="25">
+      <c r="I23" s="22">
         <v>2</v>
       </c>
-      <c r="M23" s="26">
+      <c r="J23" s="25">
+        <v>2</v>
+      </c>
+      <c r="K23" s="21">
+        <v>2</v>
+      </c>
+      <c r="L23" s="22">
+        <v>2</v>
+      </c>
+      <c r="M23" s="23">
         <v>3</v>
       </c>
-      <c r="N23" s="28">
+      <c r="N23" s="24">
         <v>3</v>
       </c>
-      <c r="O23" s="25">
+      <c r="O23" s="22">
         <v>3</v>
       </c>
-      <c r="P23" s="30">
+      <c r="P23" s="25">
         <v>4</v>
       </c>
-      <c r="Q23" s="24">
+      <c r="Q23" s="21">
         <v>4</v>
       </c>
-      <c r="R23" s="25">
+      <c r="R23" s="22">
         <v>4</v>
       </c>
-      <c r="S23" s="26">
-        <v>5</v>
-      </c>
-      <c r="T23" s="24">
-        <v>5</v>
-      </c>
-      <c r="U23" s="25">
-        <v>5</v>
-      </c>
-      <c r="V23" s="26">
+      <c r="S23" s="23">
+        <v>5</v>
+      </c>
+      <c r="T23" s="21">
+        <v>5</v>
+      </c>
+      <c r="U23" s="22">
+        <v>5</v>
+      </c>
+      <c r="V23" s="23">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:16383" s="11" customFormat="1">
+    <row r="24" spans="1:16383" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
-      <c r="C24" s="140"/>
-      <c r="D24" s="73" t="s">
-        <v>119</v>
-      </c>
-      <c r="E24" s="24">
+      <c r="C24" s="132"/>
+      <c r="D24" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="21">
         <v>1</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="22">
         <v>1</v>
       </c>
-      <c r="G24" s="26">
+      <c r="G24" s="23">
         <v>1</v>
       </c>
-      <c r="H24" s="28">
+      <c r="H24" s="24">
         <v>2</v>
       </c>
-      <c r="I24" s="25">
+      <c r="I24" s="22">
         <v>2</v>
       </c>
-      <c r="J24" s="30">
+      <c r="J24" s="25">
         <v>2</v>
       </c>
-      <c r="K24" s="24">
+      <c r="K24" s="21">
         <v>3</v>
       </c>
-      <c r="L24" s="25">
+      <c r="L24" s="22">
         <v>3</v>
       </c>
-      <c r="M24" s="26">
+      <c r="M24" s="23">
         <v>3</v>
       </c>
-      <c r="N24" s="28">
+      <c r="N24" s="24">
         <v>4</v>
       </c>
-      <c r="O24" s="25">
+      <c r="O24" s="22">
         <v>4</v>
       </c>
-      <c r="P24" s="30">
+      <c r="P24" s="25">
         <v>4</v>
       </c>
-      <c r="Q24" s="24">
+      <c r="Q24" s="21">
         <v>4</v>
       </c>
-      <c r="R24" s="25">
-        <v>5</v>
-      </c>
-      <c r="S24" s="26">
-        <v>5</v>
-      </c>
-      <c r="T24" s="24">
-        <v>5</v>
-      </c>
-      <c r="U24" s="25">
-        <v>5</v>
-      </c>
-      <c r="V24" s="26">
+      <c r="R24" s="22">
+        <v>5</v>
+      </c>
+      <c r="S24" s="23">
+        <v>5</v>
+      </c>
+      <c r="T24" s="21">
+        <v>5</v>
+      </c>
+      <c r="U24" s="22">
+        <v>5</v>
+      </c>
+      <c r="V24" s="23">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:16383" s="11" customFormat="1">
+    <row r="25" spans="1:16383" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
-      <c r="C25" s="140"/>
-      <c r="D25" s="73" t="s">
+      <c r="C25" s="132"/>
+      <c r="D25" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="125">
+      <c r="E25" s="114">
         <v>1</v>
       </c>
-      <c r="F25" s="126">
+      <c r="F25" s="115">
         <v>2</v>
       </c>
-      <c r="G25" s="127">
+      <c r="G25" s="116">
         <v>2</v>
       </c>
-      <c r="H25" s="128">
+      <c r="H25" s="117">
         <v>3</v>
       </c>
-      <c r="I25" s="126">
+      <c r="I25" s="115">
         <v>3</v>
       </c>
-      <c r="J25" s="129">
+      <c r="J25" s="118">
         <v>4</v>
       </c>
-      <c r="K25" s="125">
+      <c r="K25" s="114">
         <v>4</v>
       </c>
-      <c r="L25" s="126">
-        <v>5</v>
-      </c>
-      <c r="M25" s="127">
-        <v>5</v>
-      </c>
-      <c r="N25" s="128">
-        <v>5</v>
-      </c>
-      <c r="O25" s="126">
-        <v>5</v>
-      </c>
-      <c r="P25" s="129">
-        <v>5</v>
-      </c>
-      <c r="Q25" s="125">
-        <v>5</v>
-      </c>
-      <c r="R25" s="126">
-        <v>5</v>
-      </c>
-      <c r="S25" s="127">
-        <v>5</v>
-      </c>
-      <c r="T25" s="125">
-        <v>5</v>
-      </c>
-      <c r="U25" s="126">
-        <v>5</v>
-      </c>
-      <c r="V25" s="127">
+      <c r="L25" s="115">
+        <v>5</v>
+      </c>
+      <c r="M25" s="116">
+        <v>5</v>
+      </c>
+      <c r="N25" s="117">
+        <v>5</v>
+      </c>
+      <c r="O25" s="115">
+        <v>5</v>
+      </c>
+      <c r="P25" s="118">
+        <v>5</v>
+      </c>
+      <c r="Q25" s="114">
+        <v>5</v>
+      </c>
+      <c r="R25" s="115">
+        <v>5</v>
+      </c>
+      <c r="S25" s="116">
+        <v>5</v>
+      </c>
+      <c r="T25" s="114">
+        <v>5</v>
+      </c>
+      <c r="U25" s="115">
+        <v>5</v>
+      </c>
+      <c r="V25" s="116">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:16383" s="14" customFormat="1">
-      <c r="C26" s="140"/>
-      <c r="D26" s="73" t="s">
+    <row r="26" spans="1:16383" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C26" s="132"/>
+      <c r="D26" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E26" s="21">
         <v>1</v>
       </c>
-      <c r="F26" s="25">
+      <c r="F26" s="22">
         <v>1</v>
       </c>
-      <c r="G26" s="26">
+      <c r="G26" s="23">
+        <v>2</v>
+      </c>
+      <c r="H26" s="24">
+        <v>2</v>
+      </c>
+      <c r="I26" s="22">
+        <v>2</v>
+      </c>
+      <c r="J26" s="25">
+        <v>2</v>
+      </c>
+      <c r="K26" s="21">
+        <v>3</v>
+      </c>
+      <c r="L26" s="22">
+        <v>3</v>
+      </c>
+      <c r="M26" s="23">
+        <v>3</v>
+      </c>
+      <c r="N26" s="24">
+        <v>4</v>
+      </c>
+      <c r="O26" s="22">
+        <v>4</v>
+      </c>
+      <c r="P26" s="25">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="21">
+        <v>5</v>
+      </c>
+      <c r="R26" s="22">
+        <v>5</v>
+      </c>
+      <c r="S26" s="23">
+        <v>5</v>
+      </c>
+      <c r="T26" s="21">
+        <v>5</v>
+      </c>
+      <c r="U26" s="22">
+        <v>5</v>
+      </c>
+      <c r="V26" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16383" s="9" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="14"/>
+      <c r="C27" s="134"/>
+      <c r="D27" s="81" t="s">
+        <v>143</v>
+      </c>
+      <c r="E27" s="119">
         <v>1</v>
       </c>
-      <c r="H26" s="28">
+      <c r="F27" s="120">
+        <v>1</v>
+      </c>
+      <c r="G27" s="121">
+        <v>1</v>
+      </c>
+      <c r="H27" s="122">
+        <v>1</v>
+      </c>
+      <c r="I27" s="120">
+        <v>1</v>
+      </c>
+      <c r="J27" s="123">
+        <v>1</v>
+      </c>
+      <c r="K27" s="119">
         <v>2</v>
       </c>
-      <c r="I26" s="25">
+      <c r="L27" s="120">
         <v>2</v>
       </c>
-      <c r="J26" s="30">
+      <c r="M27" s="121">
         <v>2</v>
       </c>
-      <c r="K26" s="24">
+      <c r="N27" s="122">
         <v>3</v>
       </c>
-      <c r="L26" s="25">
+      <c r="O27" s="120">
         <v>3</v>
       </c>
-      <c r="M26" s="26">
+      <c r="P27" s="123">
         <v>3</v>
       </c>
-      <c r="N26" s="28">
+      <c r="Q27" s="119">
         <v>4</v>
       </c>
-      <c r="O26" s="25">
+      <c r="R27" s="120">
         <v>4</v>
       </c>
-      <c r="P26" s="30">
+      <c r="S27" s="121">
         <v>4</v>
       </c>
-      <c r="Q26" s="24">
-        <v>5</v>
-      </c>
-      <c r="R26" s="25">
-        <v>5</v>
-      </c>
-      <c r="S26" s="26">
-        <v>5</v>
-      </c>
-      <c r="T26" s="24">
-        <v>5</v>
-      </c>
-      <c r="U26" s="25">
-        <v>5</v>
-      </c>
-      <c r="V26" s="26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16383" s="9" customFormat="1" ht="14" thickBot="1">
-      <c r="A27" s="14"/>
-      <c r="C27" s="142"/>
-      <c r="D27" s="92" t="s">
-        <v>161</v>
-      </c>
-      <c r="E27" s="130">
-        <v>1</v>
-      </c>
-      <c r="F27" s="131">
-        <v>1</v>
-      </c>
-      <c r="G27" s="132">
-        <v>1</v>
-      </c>
-      <c r="H27" s="133">
-        <v>1</v>
-      </c>
-      <c r="I27" s="131">
-        <v>1</v>
-      </c>
-      <c r="J27" s="134">
-        <v>1</v>
-      </c>
-      <c r="K27" s="130">
-        <v>2</v>
-      </c>
-      <c r="L27" s="131">
-        <v>2</v>
-      </c>
-      <c r="M27" s="132">
-        <v>2</v>
-      </c>
-      <c r="N27" s="133">
-        <v>3</v>
-      </c>
-      <c r="O27" s="131">
-        <v>3</v>
-      </c>
-      <c r="P27" s="134">
-        <v>3</v>
-      </c>
-      <c r="Q27" s="130">
-        <v>4</v>
-      </c>
-      <c r="R27" s="131">
-        <v>4</v>
-      </c>
-      <c r="S27" s="132">
-        <v>4</v>
-      </c>
-      <c r="T27" s="130">
-        <v>5</v>
-      </c>
-      <c r="U27" s="131">
-        <v>5</v>
-      </c>
-      <c r="V27" s="132">
+      <c r="T27" s="119">
+        <v>5</v>
+      </c>
+      <c r="U27" s="120">
+        <v>5</v>
+      </c>
+      <c r="V27" s="121">
         <v>5</v>
       </c>
       <c r="W27" s="14"/>
@@ -20509,2548 +20333,1999 @@
       <c r="XFB27" s="14"/>
       <c r="XFC27" s="14"/>
     </row>
-    <row r="28" spans="1:16383" s="9" customFormat="1" ht="14" thickBot="1">
+    <row r="28" spans="1:16383" s="9" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="135">
+      <c r="C28" s="31"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="124">
         <f t="shared" ref="E28:V28" si="0">SUM(E6:E27)</f>
         <v>40</v>
       </c>
-      <c r="F28" s="135">
+      <c r="F28" s="124">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="G28" s="135">
+      <c r="G28" s="124">
         <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="H28" s="135">
+        <v>57</v>
+      </c>
+      <c r="H28" s="124">
         <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="I28" s="135">
-        <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="J28" s="135">
+        <v>64</v>
+      </c>
+      <c r="I28" s="124">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="K28" s="135">
+      <c r="J28" s="124">
         <f t="shared" si="0"/>
-        <v>82</v>
-      </c>
-      <c r="L28" s="135">
+        <v>72</v>
+      </c>
+      <c r="K28" s="124">
         <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="M28" s="135">
+        <v>85</v>
+      </c>
+      <c r="L28" s="124">
         <f t="shared" si="0"/>
-        <v>89</v>
-      </c>
-      <c r="N28" s="135">
+        <v>90</v>
+      </c>
+      <c r="M28" s="124">
         <f t="shared" si="0"/>
-        <v>97</v>
-      </c>
-      <c r="O28" s="135">
+        <v>91</v>
+      </c>
+      <c r="N28" s="124">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="O28" s="124">
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
-      <c r="P28" s="135">
+      <c r="P28" s="124">
         <f t="shared" si="0"/>
         <v>103</v>
       </c>
-      <c r="Q28" s="135">
+      <c r="Q28" s="124">
         <f t="shared" si="0"/>
         <v>107</v>
       </c>
-      <c r="R28" s="135">
+      <c r="R28" s="124">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="S28" s="135">
+      <c r="S28" s="124">
         <f t="shared" si="0"/>
         <v>109</v>
       </c>
-      <c r="T28" s="135">
+      <c r="T28" s="124">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="U28" s="135">
+      <c r="U28" s="124">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="V28" s="135">
+      <c r="V28" s="124">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:16383" s="14" customFormat="1" ht="14" thickBot="1">
-      <c r="C29" s="65"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="71"/>
-      <c r="N29" s="70"/>
-      <c r="O29" s="70"/>
-      <c r="P29" s="70"/>
-      <c r="Q29" s="69"/>
-      <c r="R29" s="70"/>
-      <c r="S29" s="71"/>
-      <c r="T29" s="69"/>
-      <c r="U29" s="70"/>
-      <c r="V29" s="71"/>
+    <row r="29" spans="1:16383" s="14" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="54"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="59"/>
+      <c r="O29" s="59"/>
+      <c r="P29" s="59"/>
+      <c r="Q29" s="58"/>
+      <c r="R29" s="59"/>
+      <c r="S29" s="60"/>
+      <c r="T29" s="58"/>
+      <c r="U29" s="59"/>
+      <c r="V29" s="60"/>
     </row>
-    <row r="30" spans="1:16383" s="4" customFormat="1">
-      <c r="A30" s="47"/>
-      <c r="B30" s="154"/>
-      <c r="C30" s="156" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="157"/>
-      <c r="E30" s="160" t="s">
-        <v>79</v>
-      </c>
-      <c r="F30" s="161"/>
-      <c r="G30" s="162"/>
-      <c r="H30" s="160" t="s">
-        <v>80</v>
-      </c>
-      <c r="I30" s="161"/>
-      <c r="J30" s="162"/>
-      <c r="K30" s="163" t="s">
-        <v>83</v>
-      </c>
-      <c r="L30" s="164"/>
-      <c r="M30" s="165"/>
-      <c r="N30" s="163" t="s">
-        <v>81</v>
-      </c>
-      <c r="O30" s="164"/>
-      <c r="P30" s="165"/>
-      <c r="Q30" s="163" t="s">
-        <v>82</v>
-      </c>
-      <c r="R30" s="164"/>
-      <c r="S30" s="165"/>
-      <c r="T30" s="163" t="s">
-        <v>78</v>
-      </c>
-      <c r="U30" s="164"/>
-      <c r="V30" s="165"/>
+    <row r="30" spans="1:16383" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="36"/>
+      <c r="B30" s="125"/>
+      <c r="C30" s="127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="128"/>
+      <c r="E30" s="139" t="s">
+        <v>150</v>
+      </c>
+      <c r="F30" s="140"/>
+      <c r="G30" s="141"/>
+      <c r="H30" s="139" t="s">
+        <v>151</v>
+      </c>
+      <c r="I30" s="140"/>
+      <c r="J30" s="141"/>
+      <c r="K30" s="139" t="s">
+        <v>152</v>
+      </c>
+      <c r="L30" s="140"/>
+      <c r="M30" s="141"/>
+      <c r="N30" s="142" t="s">
+        <v>153</v>
+      </c>
+      <c r="O30" s="140"/>
+      <c r="P30" s="143"/>
+      <c r="Q30" s="139" t="s">
+        <v>154</v>
+      </c>
+      <c r="R30" s="140"/>
+      <c r="S30" s="141"/>
+      <c r="T30" s="139" t="s">
+        <v>155</v>
+      </c>
+      <c r="U30" s="140"/>
+      <c r="V30" s="141"/>
     </row>
-    <row r="31" spans="1:16383" s="4" customFormat="1" ht="14" thickBot="1">
-      <c r="A31" s="47"/>
-      <c r="B31" s="155"/>
-      <c r="C31" s="158"/>
-      <c r="D31" s="159"/>
-      <c r="E31" s="37" t="s">
+    <row r="31" spans="1:16383" s="4" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="36"/>
+      <c r="B31" s="126"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="130"/>
+      <c r="E31" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="38" t="s">
+      <c r="G31" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="G31" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="H31" s="37" t="s">
+      <c r="H31" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="I31" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="I31" s="38" t="s">
+      <c r="J31" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="J31" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="K31" s="40" t="s">
+      <c r="K31" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="L31" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="L31" s="41" t="s">
+      <c r="M31" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="M31" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="N31" s="40" t="s">
+      <c r="N31" s="144" t="s">
+        <v>44</v>
+      </c>
+      <c r="O31" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="O31" s="41" t="s">
+      <c r="P31" s="145" t="s">
         <v>46</v>
       </c>
-      <c r="P31" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q31" s="40" t="s">
+      <c r="Q31" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="R31" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="R31" s="41" t="s">
+      <c r="S31" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="S31" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="T31" s="40" t="s">
+      <c r="T31" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="U31" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="U31" s="41" t="s">
+      <c r="V31" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="V31" s="42" t="s">
-        <v>47</v>
-      </c>
     </row>
-    <row r="32" spans="1:16383" s="9" customFormat="1" ht="14" thickBot="1">
+    <row r="32" spans="1:16383" s="9" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="73" t="s">
-        <v>164</v>
-      </c>
-      <c r="E32" s="24">
+      <c r="C32" s="53"/>
+      <c r="D32" s="62" t="s">
+        <v>146</v>
+      </c>
+      <c r="E32" s="21">
         <v>2</v>
       </c>
-      <c r="F32" s="25">
-        <v>2</v>
-      </c>
-      <c r="G32" s="26">
-        <v>2</v>
-      </c>
-      <c r="H32" s="28">
+      <c r="F32" s="22">
         <v>3</v>
       </c>
-      <c r="I32" s="25">
+      <c r="G32" s="23">
         <v>3</v>
       </c>
-      <c r="J32" s="30">
+      <c r="H32" s="24">
         <v>3</v>
       </c>
-      <c r="K32" s="24">
+      <c r="I32" s="22">
+        <v>3</v>
+      </c>
+      <c r="J32" s="25">
+        <v>3</v>
+      </c>
+      <c r="K32" s="21">
         <v>4</v>
       </c>
-      <c r="L32" s="25">
+      <c r="L32" s="22">
         <v>4</v>
       </c>
-      <c r="M32" s="26">
+      <c r="M32" s="23">
         <v>4</v>
       </c>
-      <c r="N32" s="28">
-        <v>5</v>
-      </c>
-      <c r="O32" s="25">
-        <v>5</v>
-      </c>
-      <c r="P32" s="30">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="24">
-        <v>5</v>
-      </c>
-      <c r="R32" s="25">
-        <v>5</v>
-      </c>
-      <c r="S32" s="26">
-        <v>5</v>
-      </c>
-      <c r="T32" s="24">
-        <v>5</v>
-      </c>
-      <c r="U32" s="25">
-        <v>5</v>
-      </c>
-      <c r="V32" s="26">
+      <c r="N32" s="24">
+        <v>5</v>
+      </c>
+      <c r="O32" s="22">
+        <v>5</v>
+      </c>
+      <c r="P32" s="25">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="21">
+        <v>5</v>
+      </c>
+      <c r="R32" s="22">
+        <v>5</v>
+      </c>
+      <c r="S32" s="23">
+        <v>5</v>
+      </c>
+      <c r="T32" s="21">
+        <v>5</v>
+      </c>
+      <c r="U32" s="22">
+        <v>5</v>
+      </c>
+      <c r="V32" s="23">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:23" s="9" customFormat="1" ht="14" thickBot="1">
+    <row r="33" spans="1:23" s="9" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="E33" s="24">
+      <c r="C33" s="53"/>
+      <c r="D33" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" s="21">
         <v>1</v>
       </c>
-      <c r="F33" s="25">
+      <c r="F33" s="22">
         <v>2</v>
       </c>
-      <c r="G33" s="26">
-        <v>2</v>
-      </c>
-      <c r="H33" s="28">
-        <v>2</v>
-      </c>
-      <c r="I33" s="25">
+      <c r="G33" s="23">
         <v>3</v>
       </c>
-      <c r="J33" s="30">
+      <c r="H33" s="24">
         <v>3</v>
       </c>
-      <c r="K33" s="24">
+      <c r="I33" s="22">
         <v>3</v>
       </c>
-      <c r="L33" s="25">
-        <v>3</v>
-      </c>
-      <c r="M33" s="26">
+      <c r="J33" s="25">
         <v>4</v>
       </c>
-      <c r="N33" s="28">
+      <c r="K33" s="21">
         <v>4</v>
       </c>
-      <c r="O33" s="25">
+      <c r="L33" s="22">
         <v>4</v>
       </c>
-      <c r="P33" s="30">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="24">
-        <v>5</v>
-      </c>
-      <c r="R33" s="25">
-        <v>5</v>
-      </c>
-      <c r="S33" s="26">
-        <v>5</v>
-      </c>
-      <c r="T33" s="24">
-        <v>5</v>
-      </c>
-      <c r="U33" s="25">
-        <v>5</v>
-      </c>
-      <c r="V33" s="26">
+      <c r="M33" s="23">
+        <v>4</v>
+      </c>
+      <c r="N33" s="24">
+        <v>4</v>
+      </c>
+      <c r="O33" s="22">
+        <v>4</v>
+      </c>
+      <c r="P33" s="25">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="21">
+        <v>5</v>
+      </c>
+      <c r="R33" s="22">
+        <v>5</v>
+      </c>
+      <c r="S33" s="23">
+        <v>5</v>
+      </c>
+      <c r="T33" s="21">
+        <v>5</v>
+      </c>
+      <c r="U33" s="22">
+        <v>5</v>
+      </c>
+      <c r="V33" s="23">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:23" s="9" customFormat="1" ht="14" thickBot="1">
+    <row r="34" spans="1:23" s="9" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="73" t="s">
-        <v>149</v>
-      </c>
-      <c r="E34" s="24">
+      <c r="C34" s="53"/>
+      <c r="D34" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="E34" s="21">
         <v>1</v>
       </c>
-      <c r="F34" s="25">
-        <v>1</v>
-      </c>
-      <c r="G34" s="26">
-        <v>1</v>
-      </c>
-      <c r="H34" s="28">
+      <c r="F34" s="22">
         <v>2</v>
       </c>
-      <c r="I34" s="25">
-        <v>2</v>
-      </c>
-      <c r="J34" s="30">
+      <c r="G34" s="23">
         <v>3</v>
       </c>
-      <c r="K34" s="24">
+      <c r="H34" s="24">
         <v>3</v>
       </c>
-      <c r="L34" s="25">
+      <c r="I34" s="22">
         <v>3</v>
       </c>
-      <c r="M34" s="26">
+      <c r="J34" s="25">
         <v>3</v>
       </c>
-      <c r="N34" s="28">
+      <c r="K34" s="21">
         <v>4</v>
       </c>
-      <c r="O34" s="25">
+      <c r="L34" s="22">
         <v>4</v>
       </c>
-      <c r="P34" s="30">
+      <c r="M34" s="23">
         <v>4</v>
       </c>
-      <c r="Q34" s="24">
-        <v>5</v>
-      </c>
-      <c r="R34" s="25">
-        <v>5</v>
-      </c>
-      <c r="S34" s="26">
-        <v>5</v>
-      </c>
-      <c r="T34" s="24">
-        <v>5</v>
-      </c>
-      <c r="U34" s="25">
-        <v>5</v>
-      </c>
-      <c r="V34" s="26">
-        <v>5</v>
-      </c>
-      <c r="W34" s="68"/>
+      <c r="N34" s="24">
+        <v>4</v>
+      </c>
+      <c r="O34" s="22">
+        <v>4</v>
+      </c>
+      <c r="P34" s="25">
+        <v>4</v>
+      </c>
+      <c r="Q34" s="21">
+        <v>5</v>
+      </c>
+      <c r="R34" s="22">
+        <v>5</v>
+      </c>
+      <c r="S34" s="23">
+        <v>5</v>
+      </c>
+      <c r="T34" s="21">
+        <v>5</v>
+      </c>
+      <c r="U34" s="22">
+        <v>5</v>
+      </c>
+      <c r="V34" s="23">
+        <v>5</v>
+      </c>
+      <c r="W34" s="57"/>
     </row>
-    <row r="35" spans="1:23" s="9" customFormat="1" ht="14" thickBot="1">
+    <row r="35" spans="1:23" s="9" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="73" t="s">
-        <v>150</v>
-      </c>
-      <c r="E35" s="24">
+      <c r="C35" s="53"/>
+      <c r="D35" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="E35" s="21">
         <v>1</v>
       </c>
-      <c r="F35" s="25">
+      <c r="F35" s="22">
         <v>1</v>
       </c>
-      <c r="G35" s="26">
-        <v>1</v>
-      </c>
-      <c r="H35" s="28">
-        <v>1</v>
-      </c>
-      <c r="I35" s="25">
+      <c r="G35" s="23">
         <v>2</v>
       </c>
-      <c r="J35" s="30">
+      <c r="H35" s="24">
         <v>2</v>
       </c>
-      <c r="K35" s="24">
+      <c r="I35" s="22">
+        <v>2</v>
+      </c>
+      <c r="J35" s="25">
         <v>3</v>
       </c>
-      <c r="L35" s="25">
+      <c r="K35" s="21">
         <v>3</v>
       </c>
-      <c r="M35" s="26">
+      <c r="L35" s="22">
         <v>3</v>
       </c>
-      <c r="N35" s="28">
-        <v>3</v>
-      </c>
-      <c r="O35" s="25">
+      <c r="M35" s="23">
         <v>4</v>
       </c>
-      <c r="P35" s="30">
+      <c r="N35" s="24">
         <v>4</v>
       </c>
-      <c r="Q35" s="24">
+      <c r="O35" s="22">
         <v>4</v>
       </c>
-      <c r="R35" s="25">
-        <v>5</v>
-      </c>
-      <c r="S35" s="26">
-        <v>5</v>
-      </c>
-      <c r="T35" s="24">
-        <v>5</v>
-      </c>
-      <c r="U35" s="25">
-        <v>5</v>
-      </c>
-      <c r="V35" s="26">
-        <v>5</v>
-      </c>
-      <c r="W35" s="68"/>
+      <c r="P35" s="25">
+        <v>4</v>
+      </c>
+      <c r="Q35" s="21">
+        <v>4</v>
+      </c>
+      <c r="R35" s="22">
+        <v>5</v>
+      </c>
+      <c r="S35" s="23">
+        <v>5</v>
+      </c>
+      <c r="T35" s="21">
+        <v>5</v>
+      </c>
+      <c r="U35" s="22">
+        <v>5</v>
+      </c>
+      <c r="V35" s="23">
+        <v>5</v>
+      </c>
+      <c r="W35" s="57"/>
     </row>
-    <row r="36" spans="1:23" s="9" customFormat="1" ht="14" thickBot="1">
+    <row r="36" spans="1:23" s="9" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="73" t="s">
-        <v>110</v>
-      </c>
-      <c r="E36" s="24">
+      <c r="C36" s="53"/>
+      <c r="D36" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36" s="21">
         <v>1</v>
       </c>
-      <c r="F36" s="25">
-        <v>1</v>
-      </c>
-      <c r="G36" s="26">
+      <c r="F36" s="22">
         <v>2</v>
       </c>
-      <c r="H36" s="28">
+      <c r="G36" s="23">
         <v>2</v>
       </c>
-      <c r="I36" s="25">
-        <v>2</v>
-      </c>
-      <c r="J36" s="30">
+      <c r="H36" s="24">
         <v>3</v>
       </c>
-      <c r="K36" s="24">
+      <c r="I36" s="22">
+        <v>3</v>
+      </c>
+      <c r="J36" s="25">
+        <v>3</v>
+      </c>
+      <c r="K36" s="21">
         <v>4</v>
       </c>
-      <c r="L36" s="25">
+      <c r="L36" s="22">
         <v>4</v>
       </c>
-      <c r="M36" s="26">
+      <c r="M36" s="23">
         <v>4</v>
       </c>
-      <c r="N36" s="28">
-        <v>5</v>
-      </c>
-      <c r="O36" s="25">
-        <v>5</v>
-      </c>
-      <c r="P36" s="30">
-        <v>5</v>
-      </c>
-      <c r="Q36" s="24">
-        <v>5</v>
-      </c>
-      <c r="R36" s="25">
-        <v>5</v>
-      </c>
-      <c r="S36" s="26">
-        <v>5</v>
-      </c>
-      <c r="T36" s="24">
-        <v>5</v>
-      </c>
-      <c r="U36" s="25">
-        <v>5</v>
-      </c>
-      <c r="V36" s="26">
-        <v>5</v>
-      </c>
-      <c r="W36" s="68"/>
+      <c r="N36" s="24">
+        <v>5</v>
+      </c>
+      <c r="O36" s="22">
+        <v>5</v>
+      </c>
+      <c r="P36" s="25">
+        <v>5</v>
+      </c>
+      <c r="Q36" s="21">
+        <v>5</v>
+      </c>
+      <c r="R36" s="22">
+        <v>5</v>
+      </c>
+      <c r="S36" s="23">
+        <v>5</v>
+      </c>
+      <c r="T36" s="21">
+        <v>5</v>
+      </c>
+      <c r="U36" s="22">
+        <v>5</v>
+      </c>
+      <c r="V36" s="23">
+        <v>5</v>
+      </c>
+      <c r="W36" s="57"/>
     </row>
-    <row r="37" spans="1:23" s="9" customFormat="1" ht="14" thickBot="1">
+    <row r="37" spans="1:23" s="9" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="73" t="s">
-        <v>145</v>
-      </c>
-      <c r="E37" s="24">
+      <c r="C37" s="53"/>
+      <c r="D37" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="E37" s="21">
         <v>1</v>
       </c>
-      <c r="F37" s="25">
+      <c r="F37" s="22">
         <v>1</v>
       </c>
-      <c r="G37" s="26">
-        <v>1</v>
-      </c>
-      <c r="H37" s="28">
+      <c r="G37" s="23">
         <v>2</v>
       </c>
-      <c r="I37" s="25">
+      <c r="H37" s="24">
         <v>2</v>
       </c>
-      <c r="J37" s="30">
+      <c r="I37" s="22">
         <v>2</v>
       </c>
-      <c r="K37" s="24">
+      <c r="J37" s="25">
         <v>3</v>
       </c>
-      <c r="L37" s="25">
+      <c r="K37" s="21">
         <v>3</v>
       </c>
-      <c r="M37" s="26">
-        <v>3</v>
-      </c>
-      <c r="N37" s="28">
+      <c r="L37" s="22">
         <v>4</v>
       </c>
-      <c r="O37" s="25">
+      <c r="M37" s="23">
         <v>4</v>
       </c>
-      <c r="P37" s="30">
+      <c r="N37" s="24">
         <v>4</v>
       </c>
-      <c r="Q37" s="24">
-        <v>5</v>
-      </c>
-      <c r="R37" s="25">
-        <v>5</v>
-      </c>
-      <c r="S37" s="26">
-        <v>5</v>
-      </c>
-      <c r="T37" s="24">
-        <v>5</v>
-      </c>
-      <c r="U37" s="25">
-        <v>5</v>
-      </c>
-      <c r="V37" s="26">
-        <v>5</v>
-      </c>
-      <c r="W37" s="68"/>
+      <c r="O37" s="22">
+        <v>5</v>
+      </c>
+      <c r="P37" s="25">
+        <v>5</v>
+      </c>
+      <c r="Q37" s="21">
+        <v>5</v>
+      </c>
+      <c r="R37" s="22">
+        <v>5</v>
+      </c>
+      <c r="S37" s="23">
+        <v>5</v>
+      </c>
+      <c r="T37" s="21">
+        <v>5</v>
+      </c>
+      <c r="U37" s="22">
+        <v>5</v>
+      </c>
+      <c r="V37" s="23">
+        <v>5</v>
+      </c>
+      <c r="W37" s="57"/>
     </row>
-    <row r="38" spans="1:23" s="9" customFormat="1" ht="14" thickBot="1">
+    <row r="38" spans="1:23" s="9" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="E38" s="24">
+      <c r="C38" s="53"/>
+      <c r="D38" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" s="21">
         <v>2</v>
       </c>
-      <c r="F38" s="25">
+      <c r="F38" s="22">
         <v>2</v>
       </c>
-      <c r="G38" s="26">
+      <c r="G38" s="23">
         <v>2</v>
       </c>
-      <c r="H38" s="28">
+      <c r="H38" s="24">
         <v>2</v>
       </c>
-      <c r="I38" s="25">
+      <c r="I38" s="22">
         <v>2</v>
       </c>
-      <c r="J38" s="30">
+      <c r="J38" s="25">
         <v>3</v>
       </c>
-      <c r="K38" s="24">
+      <c r="K38" s="21">
         <v>3</v>
       </c>
-      <c r="L38" s="25">
+      <c r="L38" s="22">
         <v>3</v>
       </c>
-      <c r="M38" s="26">
+      <c r="M38" s="23">
         <v>4</v>
       </c>
-      <c r="N38" s="28">
+      <c r="N38" s="24">
         <v>4</v>
       </c>
-      <c r="O38" s="25">
+      <c r="O38" s="22">
         <v>4</v>
       </c>
-      <c r="P38" s="30">
-        <v>5</v>
-      </c>
-      <c r="Q38" s="24">
-        <v>5</v>
-      </c>
-      <c r="R38" s="25">
-        <v>5</v>
-      </c>
-      <c r="S38" s="26">
-        <v>5</v>
-      </c>
-      <c r="T38" s="24">
-        <v>5</v>
-      </c>
-      <c r="U38" s="25">
-        <v>5</v>
-      </c>
-      <c r="V38" s="26">
-        <v>5</v>
-      </c>
-      <c r="W38" s="68"/>
+      <c r="P38" s="25">
+        <v>5</v>
+      </c>
+      <c r="Q38" s="21">
+        <v>5</v>
+      </c>
+      <c r="R38" s="22">
+        <v>5</v>
+      </c>
+      <c r="S38" s="23">
+        <v>5</v>
+      </c>
+      <c r="T38" s="21">
+        <v>5</v>
+      </c>
+      <c r="U38" s="22">
+        <v>5</v>
+      </c>
+      <c r="V38" s="23">
+        <v>5</v>
+      </c>
+      <c r="W38" s="57"/>
     </row>
-    <row r="39" spans="1:23" s="9" customFormat="1" ht="14" thickBot="1">
+    <row r="39" spans="1:23" s="9" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="E39" s="24">
+      <c r="C39" s="53"/>
+      <c r="D39" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" s="21">
+        <v>1</v>
+      </c>
+      <c r="F39" s="22">
         <v>2</v>
       </c>
-      <c r="F39" s="25">
+      <c r="G39" s="23">
         <v>2</v>
       </c>
-      <c r="G39" s="26">
+      <c r="H39" s="24">
         <v>2</v>
       </c>
-      <c r="H39" s="28">
-        <v>2</v>
-      </c>
-      <c r="I39" s="25">
-        <v>2</v>
-      </c>
-      <c r="J39" s="30">
-        <v>2</v>
-      </c>
-      <c r="K39" s="24">
+      <c r="I39" s="22">
         <v>3</v>
       </c>
-      <c r="L39" s="25">
+      <c r="J39" s="25">
         <v>3</v>
       </c>
-      <c r="M39" s="26">
+      <c r="K39" s="21">
         <v>3</v>
       </c>
-      <c r="N39" s="28">
+      <c r="L39" s="22">
+        <v>3</v>
+      </c>
+      <c r="M39" s="23">
         <v>4</v>
       </c>
-      <c r="O39" s="25">
+      <c r="N39" s="24">
         <v>4</v>
       </c>
-      <c r="P39" s="30">
+      <c r="O39" s="22">
         <v>4</v>
       </c>
-      <c r="Q39" s="24">
-        <v>5</v>
-      </c>
-      <c r="R39" s="25">
-        <v>5</v>
-      </c>
-      <c r="S39" s="26">
-        <v>5</v>
-      </c>
-      <c r="T39" s="24">
-        <v>5</v>
-      </c>
-      <c r="U39" s="25">
-        <v>5</v>
-      </c>
-      <c r="V39" s="26">
-        <v>5</v>
-      </c>
-      <c r="W39" s="68"/>
+      <c r="P39" s="25">
+        <v>4</v>
+      </c>
+      <c r="Q39" s="21">
+        <v>5</v>
+      </c>
+      <c r="R39" s="22">
+        <v>5</v>
+      </c>
+      <c r="S39" s="23">
+        <v>5</v>
+      </c>
+      <c r="T39" s="21">
+        <v>5</v>
+      </c>
+      <c r="U39" s="22">
+        <v>5</v>
+      </c>
+      <c r="V39" s="23">
+        <v>5</v>
+      </c>
+      <c r="W39" s="57"/>
     </row>
-    <row r="40" spans="1:23" s="9" customFormat="1" ht="14" thickBot="1">
+    <row r="40" spans="1:23" s="9" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="73" t="s">
-        <v>117</v>
-      </c>
-      <c r="E40" s="24">
+      <c r="C40" s="54"/>
+      <c r="D40" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40" s="21">
         <v>1</v>
       </c>
-      <c r="F40" s="25">
+      <c r="F40" s="22">
         <v>2</v>
       </c>
-      <c r="G40" s="26">
+      <c r="G40" s="23">
         <v>2</v>
       </c>
-      <c r="H40" s="28">
+      <c r="H40" s="24">
         <v>2</v>
       </c>
-      <c r="I40" s="25">
-        <v>2</v>
-      </c>
-      <c r="J40" s="30">
+      <c r="I40" s="22">
         <v>3</v>
       </c>
-      <c r="K40" s="24">
+      <c r="J40" s="25">
         <v>3</v>
       </c>
-      <c r="L40" s="25">
+      <c r="K40" s="21">
         <v>3</v>
       </c>
-      <c r="M40" s="26">
+      <c r="L40" s="22">
         <v>3</v>
       </c>
-      <c r="N40" s="28">
+      <c r="M40" s="23">
+        <v>3</v>
+      </c>
+      <c r="N40" s="24">
         <v>4</v>
       </c>
-      <c r="O40" s="28">
+      <c r="O40" s="24">
         <v>4</v>
       </c>
-      <c r="P40" s="26">
+      <c r="P40" s="23">
         <v>4</v>
       </c>
-      <c r="Q40" s="28">
+      <c r="Q40" s="24">
         <v>4</v>
       </c>
-      <c r="R40" s="25">
+      <c r="R40" s="22">
         <v>4</v>
       </c>
-      <c r="S40" s="26">
-        <v>5</v>
-      </c>
-      <c r="T40" s="24">
-        <v>5</v>
-      </c>
-      <c r="U40" s="25">
-        <v>5</v>
-      </c>
-      <c r="V40" s="26">
-        <v>5</v>
-      </c>
-      <c r="W40" s="68"/>
+      <c r="S40" s="23">
+        <v>5</v>
+      </c>
+      <c r="T40" s="21">
+        <v>5</v>
+      </c>
+      <c r="U40" s="22">
+        <v>5</v>
+      </c>
+      <c r="V40" s="23">
+        <v>5</v>
+      </c>
+      <c r="W40" s="57"/>
     </row>
-    <row r="41" spans="1:23" s="9" customFormat="1" ht="14" thickBot="1">
+    <row r="41" spans="1:23" s="9" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="73" t="s">
-        <v>113</v>
-      </c>
-      <c r="E41" s="24">
+      <c r="C41" s="54"/>
+      <c r="D41" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" s="21">
         <v>1</v>
       </c>
-      <c r="F41" s="25">
+      <c r="F41" s="22">
         <v>1</v>
       </c>
-      <c r="G41" s="26">
+      <c r="G41" s="23">
         <v>2</v>
       </c>
-      <c r="H41" s="28">
+      <c r="H41" s="24">
         <v>2</v>
       </c>
-      <c r="I41" s="25">
+      <c r="I41" s="22">
         <v>2</v>
       </c>
-      <c r="J41" s="30">
-        <v>2</v>
-      </c>
-      <c r="K41" s="24">
+      <c r="J41" s="25">
         <v>3</v>
       </c>
-      <c r="L41" s="25">
+      <c r="K41" s="21">
         <v>3</v>
       </c>
-      <c r="M41" s="26">
+      <c r="L41" s="22">
         <v>3</v>
       </c>
-      <c r="N41" s="28">
-        <v>3</v>
-      </c>
-      <c r="O41" s="28">
+      <c r="M41" s="23">
         <v>4</v>
       </c>
-      <c r="P41" s="26">
+      <c r="N41" s="24">
         <v>4</v>
       </c>
-      <c r="Q41" s="25">
-        <v>5</v>
-      </c>
-      <c r="R41" s="25">
-        <v>5</v>
-      </c>
-      <c r="S41" s="26">
-        <v>5</v>
-      </c>
-      <c r="T41" s="24">
-        <v>5</v>
-      </c>
-      <c r="U41" s="25">
-        <v>5</v>
-      </c>
-      <c r="V41" s="26">
-        <v>5</v>
-      </c>
-      <c r="W41" s="68"/>
+      <c r="O41" s="24">
+        <v>5</v>
+      </c>
+      <c r="P41" s="23">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="22">
+        <v>5</v>
+      </c>
+      <c r="R41" s="22">
+        <v>5</v>
+      </c>
+      <c r="S41" s="23">
+        <v>5</v>
+      </c>
+      <c r="T41" s="21">
+        <v>5</v>
+      </c>
+      <c r="U41" s="22">
+        <v>5</v>
+      </c>
+      <c r="V41" s="23">
+        <v>5</v>
+      </c>
+      <c r="W41" s="57"/>
     </row>
-    <row r="42" spans="1:23" s="9" customFormat="1" ht="14" thickBot="1">
+    <row r="42" spans="1:23" s="9" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="73" t="s">
-        <v>114</v>
-      </c>
-      <c r="E42" s="24">
+      <c r="C42" s="54"/>
+      <c r="D42" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="E42" s="21">
         <v>1</v>
       </c>
-      <c r="F42" s="25">
+      <c r="F42" s="22">
         <v>1</v>
       </c>
-      <c r="G42" s="26">
-        <v>1</v>
-      </c>
-      <c r="H42" s="28">
+      <c r="G42" s="23">
         <v>2</v>
       </c>
-      <c r="I42" s="25">
+      <c r="H42" s="24">
         <v>2</v>
       </c>
-      <c r="J42" s="30">
+      <c r="I42" s="22">
         <v>2</v>
       </c>
-      <c r="K42" s="24">
+      <c r="J42" s="25">
         <v>2</v>
       </c>
-      <c r="L42" s="25">
+      <c r="K42" s="21">
         <v>3</v>
       </c>
-      <c r="M42" s="26">
+      <c r="L42" s="22">
         <v>3</v>
       </c>
-      <c r="N42" s="28">
+      <c r="M42" s="23">
         <v>3</v>
       </c>
-      <c r="O42" s="28">
-        <v>3</v>
-      </c>
-      <c r="P42" s="26">
+      <c r="N42" s="24">
         <v>4</v>
       </c>
-      <c r="Q42" s="28">
+      <c r="O42" s="24">
         <v>4</v>
       </c>
-      <c r="R42" s="25">
+      <c r="P42" s="23">
         <v>4</v>
       </c>
-      <c r="S42" s="26">
+      <c r="Q42" s="24">
         <v>4</v>
       </c>
-      <c r="T42" s="24">
-        <v>5</v>
-      </c>
-      <c r="U42" s="25">
-        <v>5</v>
-      </c>
-      <c r="V42" s="26">
-        <v>5</v>
-      </c>
-      <c r="W42" s="68"/>
+      <c r="R42" s="22">
+        <v>4</v>
+      </c>
+      <c r="S42" s="23">
+        <v>5</v>
+      </c>
+      <c r="T42" s="21">
+        <v>5</v>
+      </c>
+      <c r="U42" s="22">
+        <v>5</v>
+      </c>
+      <c r="V42" s="23">
+        <v>5</v>
+      </c>
+      <c r="W42" s="57"/>
     </row>
-    <row r="43" spans="1:23" s="9" customFormat="1" ht="14" thickBot="1">
+    <row r="43" spans="1:23" s="9" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
-      <c r="C43" s="64"/>
-      <c r="D43" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="E43" s="24">
+      <c r="C43" s="53"/>
+      <c r="D43" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" s="21">
         <v>1</v>
       </c>
-      <c r="F43" s="25">
+      <c r="F43" s="22">
         <v>2</v>
       </c>
-      <c r="G43" s="26">
+      <c r="G43" s="23">
         <v>2</v>
       </c>
-      <c r="H43" s="28">
+      <c r="H43" s="24">
         <v>2</v>
       </c>
-      <c r="I43" s="25">
-        <v>2</v>
-      </c>
-      <c r="J43" s="30">
+      <c r="I43" s="22">
         <v>3</v>
       </c>
-      <c r="K43" s="24">
+      <c r="J43" s="25">
         <v>3</v>
       </c>
-      <c r="L43" s="25">
+      <c r="K43" s="21">
         <v>3</v>
       </c>
-      <c r="M43" s="26">
-        <v>3</v>
-      </c>
-      <c r="N43" s="28">
+      <c r="L43" s="22">
         <v>4</v>
       </c>
-      <c r="O43" s="25">
+      <c r="M43" s="23">
         <v>4</v>
       </c>
-      <c r="P43" s="30">
+      <c r="N43" s="24">
         <v>4</v>
       </c>
-      <c r="Q43" s="24">
-        <v>5</v>
-      </c>
-      <c r="R43" s="25">
-        <v>5</v>
-      </c>
-      <c r="S43" s="26">
-        <v>5</v>
-      </c>
-      <c r="T43" s="24">
-        <v>5</v>
-      </c>
-      <c r="U43" s="25">
-        <v>5</v>
-      </c>
-      <c r="V43" s="26">
-        <v>5</v>
-      </c>
-      <c r="W43" s="68"/>
+      <c r="O43" s="22">
+        <v>4</v>
+      </c>
+      <c r="P43" s="25">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="21">
+        <v>5</v>
+      </c>
+      <c r="R43" s="22">
+        <v>5</v>
+      </c>
+      <c r="S43" s="23">
+        <v>5</v>
+      </c>
+      <c r="T43" s="21">
+        <v>5</v>
+      </c>
+      <c r="U43" s="22">
+        <v>5</v>
+      </c>
+      <c r="V43" s="23">
+        <v>5</v>
+      </c>
+      <c r="W43" s="57"/>
     </row>
-    <row r="44" spans="1:23" s="9" customFormat="1" ht="14" thickBot="1">
+    <row r="44" spans="1:23" s="9" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="E44" s="24">
+      <c r="C44" s="53"/>
+      <c r="D44" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="E44" s="21">
         <v>1</v>
       </c>
-      <c r="F44" s="25">
+      <c r="F44" s="22">
         <v>1</v>
       </c>
-      <c r="G44" s="26">
+      <c r="G44" s="23">
         <v>2</v>
       </c>
-      <c r="H44" s="28">
+      <c r="H44" s="24">
         <v>2</v>
       </c>
-      <c r="I44" s="25">
+      <c r="I44" s="22">
         <v>2</v>
       </c>
-      <c r="J44" s="30">
-        <v>2</v>
-      </c>
-      <c r="K44" s="24">
+      <c r="J44" s="25">
         <v>3</v>
       </c>
-      <c r="L44" s="25">
+      <c r="K44" s="21">
         <v>3</v>
       </c>
-      <c r="M44" s="26">
+      <c r="L44" s="22">
         <v>3</v>
       </c>
-      <c r="N44" s="28">
-        <v>3</v>
-      </c>
-      <c r="O44" s="25">
+      <c r="M44" s="23">
         <v>4</v>
       </c>
-      <c r="P44" s="30">
+      <c r="N44" s="24">
         <v>4</v>
       </c>
-      <c r="Q44" s="24">
+      <c r="O44" s="22">
         <v>4</v>
       </c>
-      <c r="R44" s="25">
-        <v>5</v>
-      </c>
-      <c r="S44" s="26">
-        <v>5</v>
-      </c>
-      <c r="T44" s="24">
-        <v>5</v>
-      </c>
-      <c r="U44" s="25">
-        <v>5</v>
-      </c>
-      <c r="V44" s="26">
-        <v>5</v>
-      </c>
-      <c r="W44" s="68"/>
+      <c r="P44" s="25">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="21">
+        <v>5</v>
+      </c>
+      <c r="R44" s="22">
+        <v>5</v>
+      </c>
+      <c r="S44" s="23">
+        <v>5</v>
+      </c>
+      <c r="T44" s="21">
+        <v>5</v>
+      </c>
+      <c r="U44" s="22">
+        <v>5</v>
+      </c>
+      <c r="V44" s="23">
+        <v>5</v>
+      </c>
+      <c r="W44" s="57"/>
     </row>
-    <row r="45" spans="1:23" s="9" customFormat="1" ht="14" thickBot="1">
+    <row r="45" spans="1:23" s="9" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
-      <c r="C45" s="64"/>
-      <c r="D45" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="E45" s="24">
+      <c r="C45" s="53"/>
+      <c r="D45" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="E45" s="21">
         <v>1</v>
       </c>
-      <c r="F45" s="25">
+      <c r="F45" s="22">
         <v>1</v>
       </c>
-      <c r="G45" s="26">
-        <v>1</v>
-      </c>
-      <c r="H45" s="28">
+      <c r="G45" s="23">
         <v>2</v>
       </c>
-      <c r="I45" s="25">
+      <c r="H45" s="24">
         <v>2</v>
       </c>
-      <c r="J45" s="30">
+      <c r="I45" s="22">
         <v>2</v>
       </c>
-      <c r="K45" s="24">
+      <c r="J45" s="25">
         <v>2</v>
       </c>
-      <c r="L45" s="25">
+      <c r="K45" s="21">
+        <v>2</v>
+      </c>
+      <c r="L45" s="22">
         <v>3</v>
       </c>
-      <c r="M45" s="26">
+      <c r="M45" s="23">
         <v>3</v>
       </c>
-      <c r="N45" s="28">
+      <c r="N45" s="24">
         <v>3</v>
       </c>
-      <c r="O45" s="25">
+      <c r="O45" s="22">
         <v>4</v>
       </c>
-      <c r="P45" s="30">
+      <c r="P45" s="25">
         <v>4</v>
       </c>
-      <c r="Q45" s="24">
+      <c r="Q45" s="21">
         <v>4</v>
       </c>
-      <c r="R45" s="25">
-        <v>5</v>
-      </c>
-      <c r="S45" s="26">
-        <v>5</v>
-      </c>
-      <c r="T45" s="24">
-        <v>5</v>
-      </c>
-      <c r="U45" s="25">
-        <v>5</v>
-      </c>
-      <c r="V45" s="26">
-        <v>5</v>
-      </c>
-      <c r="W45" s="68"/>
+      <c r="R45" s="22">
+        <v>5</v>
+      </c>
+      <c r="S45" s="23">
+        <v>5</v>
+      </c>
+      <c r="T45" s="21">
+        <v>5</v>
+      </c>
+      <c r="U45" s="22">
+        <v>5</v>
+      </c>
+      <c r="V45" s="23">
+        <v>5</v>
+      </c>
+      <c r="W45" s="57"/>
     </row>
-    <row r="46" spans="1:23" s="9" customFormat="1" ht="14" thickBot="1">
+    <row r="46" spans="1:23" s="9" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="E46" s="24">
+      <c r="C46" s="53"/>
+      <c r="D46" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="E46" s="21">
         <v>2</v>
       </c>
-      <c r="F46" s="25">
+      <c r="F46" s="22">
         <v>2</v>
       </c>
-      <c r="G46" s="26">
-        <v>2</v>
-      </c>
-      <c r="H46" s="28">
+      <c r="G46" s="23">
         <v>3</v>
       </c>
-      <c r="I46" s="25">
+      <c r="H46" s="24">
         <v>3</v>
       </c>
-      <c r="J46" s="30">
+      <c r="I46" s="22">
         <v>3</v>
       </c>
-      <c r="K46" s="24">
+      <c r="J46" s="25">
         <v>4</v>
       </c>
-      <c r="L46" s="25">
+      <c r="K46" s="21">
         <v>4</v>
       </c>
-      <c r="M46" s="26">
+      <c r="L46" s="22">
         <v>4</v>
       </c>
-      <c r="N46" s="28">
-        <v>5</v>
-      </c>
-      <c r="O46" s="25">
-        <v>5</v>
-      </c>
-      <c r="P46" s="30">
-        <v>5</v>
-      </c>
-      <c r="Q46" s="24">
-        <v>5</v>
-      </c>
-      <c r="R46" s="25">
-        <v>5</v>
-      </c>
-      <c r="S46" s="26">
-        <v>5</v>
-      </c>
-      <c r="T46" s="24">
-        <v>5</v>
-      </c>
-      <c r="U46" s="25">
-        <v>5</v>
-      </c>
-      <c r="V46" s="26">
-        <v>5</v>
-      </c>
-      <c r="W46" s="68"/>
+      <c r="M46" s="23">
+        <v>4</v>
+      </c>
+      <c r="N46" s="24">
+        <v>5</v>
+      </c>
+      <c r="O46" s="22">
+        <v>5</v>
+      </c>
+      <c r="P46" s="25">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="21">
+        <v>5</v>
+      </c>
+      <c r="R46" s="22">
+        <v>5</v>
+      </c>
+      <c r="S46" s="23">
+        <v>5</v>
+      </c>
+      <c r="T46" s="21">
+        <v>5</v>
+      </c>
+      <c r="U46" s="22">
+        <v>5</v>
+      </c>
+      <c r="V46" s="23">
+        <v>5</v>
+      </c>
+      <c r="W46" s="57"/>
     </row>
-    <row r="47" spans="1:23" s="9" customFormat="1" ht="14" thickBot="1">
+    <row r="47" spans="1:23" s="9" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="66" t="s">
-        <v>99</v>
-      </c>
-      <c r="E47" s="24">
+      <c r="C47" s="53"/>
+      <c r="D47" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="E47" s="21">
         <v>1</v>
       </c>
-      <c r="F47" s="25">
+      <c r="F47" s="22">
         <v>2</v>
       </c>
-      <c r="G47" s="26">
+      <c r="G47" s="23">
         <v>2</v>
       </c>
-      <c r="H47" s="28">
+      <c r="H47" s="24">
         <v>2</v>
       </c>
-      <c r="I47" s="25">
+      <c r="I47" s="22">
         <v>3</v>
       </c>
-      <c r="J47" s="30">
+      <c r="J47" s="25">
         <v>3</v>
       </c>
-      <c r="K47" s="24">
-        <v>3</v>
-      </c>
-      <c r="L47" s="25">
-        <v>3</v>
-      </c>
-      <c r="M47" s="26">
+      <c r="K47" s="21">
         <v>4</v>
       </c>
-      <c r="N47" s="28">
+      <c r="L47" s="22">
         <v>4</v>
       </c>
-      <c r="O47" s="25">
+      <c r="M47" s="23">
         <v>4</v>
       </c>
-      <c r="P47" s="30">
-        <v>5</v>
-      </c>
-      <c r="Q47" s="24">
-        <v>5</v>
-      </c>
-      <c r="R47" s="25">
-        <v>5</v>
-      </c>
-      <c r="S47" s="26">
-        <v>5</v>
-      </c>
-      <c r="T47" s="24">
-        <v>5</v>
-      </c>
-      <c r="U47" s="25">
-        <v>5</v>
-      </c>
-      <c r="V47" s="26">
-        <v>5</v>
-      </c>
-      <c r="W47" s="68"/>
+      <c r="N47" s="24">
+        <v>4</v>
+      </c>
+      <c r="O47" s="22">
+        <v>5</v>
+      </c>
+      <c r="P47" s="25">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="21">
+        <v>5</v>
+      </c>
+      <c r="R47" s="22">
+        <v>5</v>
+      </c>
+      <c r="S47" s="23">
+        <v>5</v>
+      </c>
+      <c r="T47" s="21">
+        <v>5</v>
+      </c>
+      <c r="U47" s="22">
+        <v>5</v>
+      </c>
+      <c r="V47" s="23">
+        <v>5</v>
+      </c>
+      <c r="W47" s="57"/>
     </row>
-    <row r="48" spans="1:23" s="9" customFormat="1" ht="14" thickBot="1">
+    <row r="48" spans="1:23" s="9" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="66" t="s">
-        <v>100</v>
-      </c>
-      <c r="E48" s="24">
+      <c r="C48" s="53"/>
+      <c r="D48" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="E48" s="21">
         <v>1</v>
       </c>
-      <c r="F48" s="25">
-        <v>1</v>
-      </c>
-      <c r="G48" s="26">
+      <c r="F48" s="22">
         <v>2</v>
       </c>
-      <c r="H48" s="28">
+      <c r="G48" s="23">
         <v>2</v>
       </c>
-      <c r="I48" s="25">
+      <c r="H48" s="24">
         <v>2</v>
       </c>
-      <c r="J48" s="30">
-        <v>2</v>
-      </c>
-      <c r="K48" s="24">
+      <c r="I48" s="22">
         <v>3</v>
       </c>
-      <c r="L48" s="25">
+      <c r="J48" s="25">
         <v>3</v>
       </c>
-      <c r="M48" s="26">
+      <c r="K48" s="21">
         <v>3</v>
       </c>
-      <c r="N48" s="28">
+      <c r="L48" s="22">
+        <v>3</v>
+      </c>
+      <c r="M48" s="23">
         <v>4</v>
       </c>
-      <c r="O48" s="25">
+      <c r="N48" s="24">
         <v>4</v>
       </c>
-      <c r="P48" s="30">
+      <c r="O48" s="22">
         <v>4</v>
       </c>
-      <c r="Q48" s="24">
-        <v>5</v>
-      </c>
-      <c r="R48" s="25">
-        <v>5</v>
-      </c>
-      <c r="S48" s="26">
-        <v>5</v>
-      </c>
-      <c r="T48" s="24">
-        <v>5</v>
-      </c>
-      <c r="U48" s="25">
-        <v>5</v>
-      </c>
-      <c r="V48" s="26">
-        <v>5</v>
-      </c>
-      <c r="W48" s="68"/>
+      <c r="P48" s="25">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="21">
+        <v>5</v>
+      </c>
+      <c r="R48" s="22">
+        <v>5</v>
+      </c>
+      <c r="S48" s="23">
+        <v>5</v>
+      </c>
+      <c r="T48" s="21">
+        <v>5</v>
+      </c>
+      <c r="U48" s="22">
+        <v>5</v>
+      </c>
+      <c r="V48" s="23">
+        <v>5</v>
+      </c>
+      <c r="W48" s="57"/>
     </row>
-    <row r="49" spans="1:23" s="9" customFormat="1" ht="14" thickBot="1">
+    <row r="49" spans="1:23" s="9" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
-      <c r="C49" s="64"/>
-      <c r="D49" s="66" t="s">
-        <v>102</v>
-      </c>
-      <c r="E49" s="24">
+      <c r="C49" s="53"/>
+      <c r="D49" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="E49" s="21">
         <v>1</v>
       </c>
-      <c r="F49" s="25">
+      <c r="F49" s="22">
         <v>1</v>
       </c>
-      <c r="G49" s="26">
-        <v>1</v>
-      </c>
-      <c r="H49" s="28">
+      <c r="G49" s="23">
         <v>2</v>
       </c>
-      <c r="I49" s="25">
+      <c r="H49" s="24">
         <v>2</v>
       </c>
-      <c r="J49" s="30">
+      <c r="I49" s="22">
         <v>2</v>
       </c>
-      <c r="K49" s="24">
-        <v>2</v>
-      </c>
-      <c r="L49" s="25">
+      <c r="J49" s="25">
         <v>3</v>
       </c>
-      <c r="M49" s="26">
+      <c r="K49" s="21">
         <v>3</v>
       </c>
-      <c r="N49" s="28">
+      <c r="L49" s="22">
         <v>3</v>
       </c>
-      <c r="O49" s="25">
+      <c r="M49" s="23">
+        <v>3</v>
+      </c>
+      <c r="N49" s="24">
+        <v>3</v>
+      </c>
+      <c r="O49" s="22">
         <v>4</v>
       </c>
-      <c r="P49" s="30">
+      <c r="P49" s="25">
         <v>4</v>
       </c>
-      <c r="Q49" s="24">
+      <c r="Q49" s="21">
         <v>4</v>
       </c>
-      <c r="R49" s="25">
-        <v>5</v>
-      </c>
-      <c r="S49" s="26">
-        <v>5</v>
-      </c>
-      <c r="T49" s="24">
-        <v>5</v>
-      </c>
-      <c r="U49" s="25">
-        <v>5</v>
-      </c>
-      <c r="V49" s="26">
-        <v>5</v>
-      </c>
-      <c r="W49" s="68"/>
+      <c r="R49" s="22">
+        <v>5</v>
+      </c>
+      <c r="S49" s="23">
+        <v>5</v>
+      </c>
+      <c r="T49" s="21">
+        <v>5</v>
+      </c>
+      <c r="U49" s="22">
+        <v>5</v>
+      </c>
+      <c r="V49" s="23">
+        <v>5</v>
+      </c>
+      <c r="W49" s="57"/>
     </row>
-    <row r="50" spans="1:23" s="9" customFormat="1" ht="14" thickBot="1">
+    <row r="50" spans="1:23" s="9" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
-      <c r="C50" s="79"/>
-      <c r="D50" s="114" t="s">
-        <v>152</v>
-      </c>
-      <c r="E50" s="24">
+      <c r="C50" s="68"/>
+      <c r="D50" s="103" t="s">
+        <v>134</v>
+      </c>
+      <c r="E50" s="21">
         <v>1</v>
       </c>
-      <c r="F50" s="25">
+      <c r="F50" s="22">
         <v>1</v>
       </c>
-      <c r="G50" s="26">
-        <v>1</v>
-      </c>
-      <c r="H50" s="28">
+      <c r="G50" s="23">
         <v>2</v>
       </c>
-      <c r="I50" s="25">
+      <c r="H50" s="24">
         <v>2</v>
       </c>
-      <c r="J50" s="30">
+      <c r="I50" s="22">
         <v>2</v>
       </c>
-      <c r="K50" s="24">
+      <c r="J50" s="25">
         <v>3</v>
       </c>
-      <c r="L50" s="25">
+      <c r="K50" s="21">
         <v>3</v>
       </c>
-      <c r="M50" s="26">
+      <c r="L50" s="22">
         <v>3</v>
       </c>
-      <c r="N50" s="28">
+      <c r="M50" s="23">
         <v>4</v>
       </c>
-      <c r="O50" s="25">
+      <c r="N50" s="24">
         <v>4</v>
       </c>
-      <c r="P50" s="30">
-        <v>4</v>
-      </c>
-      <c r="Q50" s="24">
-        <v>5</v>
-      </c>
-      <c r="R50" s="25">
-        <v>5</v>
-      </c>
-      <c r="S50" s="26">
-        <v>5</v>
-      </c>
-      <c r="T50" s="24">
-        <v>5</v>
-      </c>
-      <c r="U50" s="25">
-        <v>5</v>
-      </c>
-      <c r="V50" s="26">
-        <v>5</v>
-      </c>
-      <c r="W50" s="68"/>
+      <c r="O50" s="22">
+        <v>5</v>
+      </c>
+      <c r="P50" s="25">
+        <v>5</v>
+      </c>
+      <c r="Q50" s="21">
+        <v>5</v>
+      </c>
+      <c r="R50" s="22">
+        <v>5</v>
+      </c>
+      <c r="S50" s="23">
+        <v>5</v>
+      </c>
+      <c r="T50" s="21">
+        <v>5</v>
+      </c>
+      <c r="U50" s="22">
+        <v>5</v>
+      </c>
+      <c r="V50" s="23">
+        <v>5</v>
+      </c>
+      <c r="W50" s="57"/>
     </row>
-    <row r="51" spans="1:23" s="9" customFormat="1" ht="14" thickBot="1">
+    <row r="51" spans="1:23" s="9" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
-      <c r="C51" s="79"/>
-      <c r="D51" s="114" t="s">
-        <v>151</v>
-      </c>
-      <c r="E51" s="24">
+      <c r="C51" s="68"/>
+      <c r="D51" s="103" t="s">
+        <v>133</v>
+      </c>
+      <c r="E51" s="21">
         <v>2</v>
       </c>
-      <c r="F51" s="25">
+      <c r="F51" s="22">
         <v>2</v>
       </c>
-      <c r="G51" s="26">
-        <v>2</v>
-      </c>
-      <c r="H51" s="28">
+      <c r="G51" s="23">
         <v>3</v>
       </c>
-      <c r="I51" s="25">
+      <c r="H51" s="24">
         <v>3</v>
       </c>
-      <c r="J51" s="30">
+      <c r="I51" s="22">
         <v>3</v>
       </c>
-      <c r="K51" s="24">
-        <v>3</v>
-      </c>
-      <c r="L51" s="25">
+      <c r="J51" s="25">
         <v>4</v>
       </c>
-      <c r="M51" s="26">
+      <c r="K51" s="21">
         <v>4</v>
       </c>
-      <c r="N51" s="28">
+      <c r="L51" s="22">
         <v>4</v>
       </c>
-      <c r="O51" s="25">
-        <v>5</v>
-      </c>
-      <c r="P51" s="30">
-        <v>5</v>
-      </c>
-      <c r="Q51" s="24">
-        <v>5</v>
-      </c>
-      <c r="R51" s="25">
-        <v>5</v>
-      </c>
-      <c r="S51" s="26">
-        <v>5</v>
-      </c>
-      <c r="T51" s="24">
-        <v>5</v>
-      </c>
-      <c r="U51" s="25">
-        <v>5</v>
-      </c>
-      <c r="V51" s="26">
-        <v>5</v>
-      </c>
-      <c r="W51" s="68"/>
+      <c r="M51" s="23">
+        <v>5</v>
+      </c>
+      <c r="N51" s="24">
+        <v>5</v>
+      </c>
+      <c r="O51" s="22">
+        <v>5</v>
+      </c>
+      <c r="P51" s="25">
+        <v>5</v>
+      </c>
+      <c r="Q51" s="21">
+        <v>5</v>
+      </c>
+      <c r="R51" s="22">
+        <v>5</v>
+      </c>
+      <c r="S51" s="23">
+        <v>5</v>
+      </c>
+      <c r="T51" s="21">
+        <v>5</v>
+      </c>
+      <c r="U51" s="22">
+        <v>5</v>
+      </c>
+      <c r="V51" s="23">
+        <v>5</v>
+      </c>
+      <c r="W51" s="57"/>
     </row>
-    <row r="52" spans="1:23" s="9" customFormat="1" ht="14" thickBot="1">
+    <row r="52" spans="1:23" s="9" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="66" t="s">
-        <v>104</v>
-      </c>
-      <c r="E52" s="24">
+      <c r="C52" s="53"/>
+      <c r="D52" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="E52" s="21">
         <v>1</v>
       </c>
-      <c r="F52" s="25">
+      <c r="F52" s="22">
         <v>2</v>
       </c>
-      <c r="G52" s="26">
+      <c r="G52" s="23">
         <v>2</v>
       </c>
-      <c r="H52" s="28">
+      <c r="H52" s="24">
         <v>2</v>
       </c>
-      <c r="I52" s="25">
+      <c r="I52" s="22">
         <v>3</v>
       </c>
-      <c r="J52" s="30">
+      <c r="J52" s="25">
         <v>3</v>
       </c>
-      <c r="K52" s="24">
+      <c r="K52" s="21">
         <v>3</v>
       </c>
-      <c r="L52" s="25">
+      <c r="L52" s="22">
         <v>4</v>
       </c>
-      <c r="M52" s="26">
+      <c r="M52" s="23">
         <v>4</v>
       </c>
-      <c r="N52" s="28">
+      <c r="N52" s="24">
         <v>4</v>
       </c>
-      <c r="O52" s="25">
-        <v>5</v>
-      </c>
-      <c r="P52" s="30">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="24">
-        <v>5</v>
-      </c>
-      <c r="R52" s="25">
-        <v>5</v>
-      </c>
-      <c r="S52" s="26">
-        <v>5</v>
-      </c>
-      <c r="T52" s="24">
-        <v>5</v>
-      </c>
-      <c r="U52" s="25">
-        <v>5</v>
-      </c>
-      <c r="V52" s="26">
-        <v>5</v>
-      </c>
-      <c r="W52" s="68"/>
+      <c r="O52" s="22">
+        <v>5</v>
+      </c>
+      <c r="P52" s="25">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="21">
+        <v>5</v>
+      </c>
+      <c r="R52" s="22">
+        <v>5</v>
+      </c>
+      <c r="S52" s="23">
+        <v>5</v>
+      </c>
+      <c r="T52" s="21">
+        <v>5</v>
+      </c>
+      <c r="U52" s="22">
+        <v>5</v>
+      </c>
+      <c r="V52" s="23">
+        <v>5</v>
+      </c>
+      <c r="W52" s="57"/>
     </row>
-    <row r="53" spans="1:23" s="9" customFormat="1" ht="14" thickBot="1">
+    <row r="53" spans="1:23" s="9" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
-      <c r="C53" s="64"/>
-      <c r="D53" s="66" t="s">
-        <v>106</v>
-      </c>
-      <c r="E53" s="24">
+      <c r="C53" s="53"/>
+      <c r="D53" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="E53" s="21">
         <v>1</v>
       </c>
-      <c r="F53" s="25">
+      <c r="F53" s="22">
         <v>1</v>
       </c>
-      <c r="G53" s="26">
+      <c r="G53" s="23">
         <v>2</v>
       </c>
-      <c r="H53" s="28">
+      <c r="H53" s="24">
         <v>2</v>
       </c>
-      <c r="I53" s="25">
+      <c r="I53" s="22">
         <v>2</v>
       </c>
-      <c r="J53" s="30">
+      <c r="J53" s="25">
         <v>3</v>
       </c>
-      <c r="K53" s="24">
+      <c r="K53" s="21">
         <v>3</v>
       </c>
-      <c r="L53" s="25">
+      <c r="L53" s="22">
         <v>3</v>
       </c>
-      <c r="M53" s="26">
+      <c r="M53" s="23">
         <v>4</v>
       </c>
-      <c r="N53" s="28">
+      <c r="N53" s="24">
         <v>4</v>
       </c>
-      <c r="O53" s="25">
+      <c r="O53" s="22">
         <v>4</v>
       </c>
-      <c r="P53" s="30">
-        <v>5</v>
-      </c>
-      <c r="Q53" s="24">
-        <v>5</v>
-      </c>
-      <c r="R53" s="25">
-        <v>5</v>
-      </c>
-      <c r="S53" s="26">
-        <v>5</v>
-      </c>
-      <c r="T53" s="24">
-        <v>5</v>
-      </c>
-      <c r="U53" s="25">
-        <v>5</v>
-      </c>
-      <c r="V53" s="26">
-        <v>5</v>
-      </c>
-      <c r="W53" s="68"/>
+      <c r="P53" s="25">
+        <v>5</v>
+      </c>
+      <c r="Q53" s="21">
+        <v>5</v>
+      </c>
+      <c r="R53" s="22">
+        <v>5</v>
+      </c>
+      <c r="S53" s="23">
+        <v>5</v>
+      </c>
+      <c r="T53" s="21">
+        <v>5</v>
+      </c>
+      <c r="U53" s="22">
+        <v>5</v>
+      </c>
+      <c r="V53" s="23">
+        <v>5</v>
+      </c>
+      <c r="W53" s="57"/>
     </row>
-    <row r="54" spans="1:23" s="9" customFormat="1" ht="14" thickBot="1">
+    <row r="54" spans="1:23" s="9" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
-      <c r="C54" s="64"/>
-      <c r="D54" s="73" t="s">
-        <v>162</v>
-      </c>
-      <c r="E54" s="24">
+      <c r="C54" s="53"/>
+      <c r="D54" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="E54" s="21">
+        <v>1</v>
+      </c>
+      <c r="F54" s="22">
+        <v>1</v>
+      </c>
+      <c r="G54" s="23">
         <v>2</v>
       </c>
-      <c r="F54" s="25">
+      <c r="H54" s="24">
         <v>2</v>
       </c>
-      <c r="G54" s="26">
+      <c r="I54" s="22">
         <v>2</v>
       </c>
-      <c r="H54" s="28">
+      <c r="J54" s="25">
         <v>3</v>
       </c>
-      <c r="I54" s="25">
+      <c r="K54" s="21">
         <v>3</v>
       </c>
-      <c r="J54" s="30">
+      <c r="L54" s="22">
         <v>3</v>
       </c>
-      <c r="K54" s="24">
+      <c r="M54" s="23">
         <v>4</v>
       </c>
-      <c r="L54" s="25">
+      <c r="N54" s="24">
         <v>4</v>
       </c>
-      <c r="M54" s="26">
+      <c r="O54" s="22">
         <v>4</v>
       </c>
-      <c r="N54" s="28">
-        <v>5</v>
-      </c>
-      <c r="O54" s="25">
-        <v>5</v>
-      </c>
-      <c r="P54" s="30">
-        <v>5</v>
-      </c>
-      <c r="Q54" s="24">
-        <v>5</v>
-      </c>
-      <c r="R54" s="25">
-        <v>5</v>
-      </c>
-      <c r="S54" s="26">
-        <v>5</v>
-      </c>
-      <c r="T54" s="24">
-        <v>5</v>
-      </c>
-      <c r="U54" s="25">
-        <v>5</v>
-      </c>
-      <c r="V54" s="26">
-        <v>5</v>
-      </c>
-      <c r="W54" s="68"/>
+      <c r="P54" s="25">
+        <v>4</v>
+      </c>
+      <c r="Q54" s="21">
+        <v>5</v>
+      </c>
+      <c r="R54" s="22">
+        <v>5</v>
+      </c>
+      <c r="S54" s="23">
+        <v>5</v>
+      </c>
+      <c r="T54" s="21">
+        <v>5</v>
+      </c>
+      <c r="U54" s="22">
+        <v>5</v>
+      </c>
+      <c r="V54" s="23">
+        <v>5</v>
+      </c>
+      <c r="W54" s="57"/>
     </row>
-    <row r="55" spans="1:23" s="9" customFormat="1" ht="14" thickBot="1">
+    <row r="55" spans="1:23" s="20" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="64"/>
-      <c r="D55" s="73" t="s">
-        <v>148</v>
-      </c>
-      <c r="E55" s="24">
+      <c r="B55" s="18"/>
+      <c r="C55" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55" s="37"/>
+      <c r="E55" s="26">
+        <v>1381</v>
+      </c>
+      <c r="F55" s="26">
+        <f>G55*70%</f>
+        <v>2463.6271981330333</v>
+      </c>
+      <c r="G55" s="26">
+        <f>H55*70%</f>
+        <v>3519.4674259043336</v>
+      </c>
+      <c r="H55" s="26">
+        <f>I55*92%</f>
+        <v>5027.8106084347628</v>
+      </c>
+      <c r="I55" s="26">
+        <f t="shared" ref="I55:T55" si="1">J55*90%</f>
+        <v>5465.0115309073508</v>
+      </c>
+      <c r="J55" s="26">
+        <f t="shared" si="1"/>
+        <v>6072.235034341501</v>
+      </c>
+      <c r="K55" s="26">
+        <f t="shared" si="1"/>
+        <v>6746.9278159350006</v>
+      </c>
+      <c r="L55" s="26">
+        <f t="shared" si="1"/>
+        <v>7496.5864621500004</v>
+      </c>
+      <c r="M55" s="26">
+        <f t="shared" si="1"/>
+        <v>8329.5405135000001</v>
+      </c>
+      <c r="N55" s="26">
+        <f t="shared" si="1"/>
+        <v>9255.0450149999997</v>
+      </c>
+      <c r="O55" s="26">
+        <f t="shared" si="1"/>
+        <v>10283.38335</v>
+      </c>
+      <c r="P55" s="26">
+        <f t="shared" si="1"/>
+        <v>11425.9815</v>
+      </c>
+      <c r="Q55" s="26">
+        <f t="shared" si="1"/>
+        <v>12695.535</v>
+      </c>
+      <c r="R55" s="26">
+        <f t="shared" si="1"/>
+        <v>14106.15</v>
+      </c>
+      <c r="S55" s="26">
+        <f t="shared" si="1"/>
+        <v>15673.5</v>
+      </c>
+      <c r="T55" s="26">
+        <f t="shared" si="1"/>
+        <v>17415</v>
+      </c>
+      <c r="U55" s="26">
+        <f>V55*90%</f>
+        <v>19350</v>
+      </c>
+      <c r="V55" s="27">
+        <v>21500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" s="9" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="124">
+        <f>SUM(E32:E54)</f>
+        <v>27</v>
+      </c>
+      <c r="F56" s="124">
+        <f>SUM(F32:F54)</f>
+        <v>37</v>
+      </c>
+      <c r="G56" s="124">
+        <f>SUM(G32:G54)</f>
+        <v>51</v>
+      </c>
+      <c r="H56" s="124">
+        <f>SUM(H32:H54)</f>
+        <v>52</v>
+      </c>
+      <c r="I56" s="124">
+        <f>SUM(I32:I54)</f>
+        <v>58</v>
+      </c>
+      <c r="J56" s="124">
+        <f>SUM(J32:J54)</f>
+        <v>70</v>
+      </c>
+      <c r="K56" s="124">
+        <f>SUM(K32:K54)</f>
+        <v>75</v>
+      </c>
+      <c r="L56" s="124">
+        <f>SUM(L32:L54)</f>
+        <v>79</v>
+      </c>
+      <c r="M56" s="124">
+        <f>SUM(M32:M54)</f>
+        <v>89</v>
+      </c>
+      <c r="N56" s="124">
+        <f>SUM(N32:N54)</f>
+        <v>94</v>
+      </c>
+      <c r="O56" s="124">
+        <f>SUM(O32:O54)</f>
+        <v>101</v>
+      </c>
+      <c r="P56" s="124">
+        <f>SUM(P32:P54)</f>
+        <v>106</v>
+      </c>
+      <c r="Q56" s="124">
+        <f>SUM(Q32:Q54)</f>
+        <v>110</v>
+      </c>
+      <c r="R56" s="124">
+        <f>SUM(R32:R54)</f>
+        <v>113</v>
+      </c>
+      <c r="S56" s="124">
+        <f>SUM(S32:S54)</f>
+        <v>115</v>
+      </c>
+      <c r="T56" s="124">
+        <f>SUM(T32:T54)</f>
+        <v>115</v>
+      </c>
+      <c r="U56" s="124">
+        <f>SUM(U32:U54)</f>
+        <v>115</v>
+      </c>
+      <c r="V56" s="124">
+        <f>SUM(V32:V54)</f>
+        <v>115</v>
+      </c>
+      <c r="W56" s="57"/>
+    </row>
+    <row r="57" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C57" s="64"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="65"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="65"/>
+      <c r="H57" s="65"/>
+      <c r="I57" s="65"/>
+      <c r="J57" s="65"/>
+      <c r="K57" s="65"/>
+      <c r="L57" s="65"/>
+      <c r="M57" s="65"/>
+      <c r="N57" s="65"/>
+      <c r="O57" s="65"/>
+      <c r="P57" s="65"/>
+      <c r="Q57" s="65"/>
+      <c r="R57" s="65"/>
+      <c r="S57" s="65"/>
+      <c r="T57" s="65"/>
+      <c r="U57" s="65"/>
+      <c r="V57" s="65"/>
+      <c r="W57" s="66"/>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="28"/>
+      <c r="L58" s="28"/>
+      <c r="M58" s="28"/>
+      <c r="N58" s="28"/>
+      <c r="O58" s="28"/>
+      <c r="P58" s="28"/>
+      <c r="Q58" s="28"/>
+      <c r="R58" s="28"/>
+      <c r="S58" s="28"/>
+      <c r="T58" s="28"/>
+      <c r="U58" s="28"/>
+      <c r="V58" s="28"/>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="C59" s="2">
         <v>1</v>
       </c>
-      <c r="F55" s="25">
-        <v>1</v>
-      </c>
-      <c r="G55" s="26">
+      <c r="D59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="29"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="29"/>
+      <c r="N59" s="29"/>
+      <c r="O59" s="29"/>
+      <c r="P59" s="29"/>
+      <c r="Q59" s="29"/>
+      <c r="R59" s="29"/>
+      <c r="S59" s="29"/>
+      <c r="T59" s="29"/>
+      <c r="U59" s="29"/>
+      <c r="V59" s="29"/>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="C60" s="2">
         <v>2</v>
       </c>
-      <c r="H55" s="28">
-        <v>2</v>
-      </c>
-      <c r="I55" s="25">
-        <v>2</v>
-      </c>
-      <c r="J55" s="30">
+      <c r="D60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="C61" s="2">
         <v>3</v>
       </c>
-      <c r="K55" s="24">
-        <v>3</v>
-      </c>
-      <c r="L55" s="25">
-        <v>3</v>
-      </c>
-      <c r="M55" s="26">
-        <v>3</v>
-      </c>
-      <c r="N55" s="28">
+      <c r="D61" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="C62" s="2">
         <v>4</v>
       </c>
-      <c r="O55" s="25">
-        <v>4</v>
-      </c>
-      <c r="P55" s="30">
-        <v>4</v>
-      </c>
-      <c r="Q55" s="24">
-        <v>5</v>
-      </c>
-      <c r="R55" s="25">
-        <v>5</v>
-      </c>
-      <c r="S55" s="26">
-        <v>5</v>
-      </c>
-      <c r="T55" s="24">
-        <v>5</v>
-      </c>
-      <c r="U55" s="25">
-        <v>5</v>
-      </c>
-      <c r="V55" s="26">
-        <v>5</v>
-      </c>
-      <c r="W55" s="68"/>
+      <c r="D62" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="56" spans="1:23" s="20" customFormat="1" ht="14" thickBot="1">
-      <c r="A56" s="14"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D56" s="48"/>
-      <c r="E56" s="31">
-        <v>1341</v>
-      </c>
-      <c r="F56" s="31">
-        <f t="shared" ref="E56:U56" si="1">G56*85%</f>
-        <v>1596.3983540753745</v>
-      </c>
-      <c r="G56" s="31">
-        <f t="shared" si="1"/>
-        <v>1878.1157106769112</v>
-      </c>
-      <c r="H56" s="31">
-        <f t="shared" si="1"/>
-        <v>2209.5478949140133</v>
-      </c>
-      <c r="I56" s="31">
-        <f t="shared" si="1"/>
-        <v>2599.4681116635452</v>
-      </c>
-      <c r="J56" s="31">
-        <f t="shared" si="1"/>
-        <v>3058.1977784277001</v>
-      </c>
-      <c r="K56" s="31">
-        <f t="shared" si="1"/>
-        <v>3597.8797393267059</v>
-      </c>
-      <c r="L56" s="31">
-        <f t="shared" si="1"/>
-        <v>4232.7996933255363</v>
-      </c>
-      <c r="M56" s="31">
-        <f t="shared" si="1"/>
-        <v>4979.7643450888663</v>
-      </c>
-      <c r="N56" s="31">
-        <f t="shared" si="1"/>
-        <v>5858.5462883398432</v>
-      </c>
-      <c r="O56" s="31">
-        <f t="shared" si="1"/>
-        <v>6892.4073980468747</v>
-      </c>
-      <c r="P56" s="31">
-        <f t="shared" si="1"/>
-        <v>8108.7145859374996</v>
-      </c>
-      <c r="Q56" s="31">
-        <f t="shared" si="1"/>
-        <v>9539.6642187500001</v>
-      </c>
-      <c r="R56" s="31">
-        <f t="shared" si="1"/>
-        <v>11223.134375</v>
-      </c>
-      <c r="S56" s="31">
-        <f t="shared" si="1"/>
-        <v>13203.6875</v>
-      </c>
-      <c r="T56" s="31">
-        <f t="shared" si="1"/>
-        <v>15533.75</v>
-      </c>
-      <c r="U56" s="31">
-        <f t="shared" si="1"/>
-        <v>18275</v>
-      </c>
-      <c r="V56" s="32">
-        <v>21500</v>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="C63" s="2">
+        <v>5</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:23" s="9" customFormat="1" ht="14" thickBot="1">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="64"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="135">
-        <f t="shared" ref="E57:V57" si="2">SUM(E32:E55)</f>
-        <v>30</v>
-      </c>
-      <c r="F57" s="135">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="G57" s="135">
-        <f t="shared" si="2"/>
-        <v>41</v>
-      </c>
-      <c r="H57" s="135">
-        <f t="shared" si="2"/>
-        <v>51</v>
-      </c>
-      <c r="I57" s="135">
-        <f t="shared" si="2"/>
-        <v>55</v>
-      </c>
-      <c r="J57" s="135">
-        <f t="shared" si="2"/>
-        <v>62</v>
-      </c>
-      <c r="K57" s="135">
-        <f t="shared" si="2"/>
-        <v>73</v>
-      </c>
-      <c r="L57" s="135">
-        <f t="shared" si="2"/>
-        <v>78</v>
-      </c>
-      <c r="M57" s="135">
-        <f t="shared" si="2"/>
-        <v>82</v>
-      </c>
-      <c r="N57" s="135">
-        <f t="shared" si="2"/>
-        <v>94</v>
-      </c>
-      <c r="O57" s="135">
-        <f t="shared" si="2"/>
-        <v>101</v>
-      </c>
-      <c r="P57" s="135">
-        <f t="shared" si="2"/>
-        <v>106</v>
-      </c>
-      <c r="Q57" s="135">
-        <f t="shared" si="2"/>
-        <v>114</v>
-      </c>
-      <c r="R57" s="135">
-        <f t="shared" si="2"/>
-        <v>118</v>
-      </c>
-      <c r="S57" s="135">
-        <f t="shared" si="2"/>
-        <v>119</v>
-      </c>
-      <c r="T57" s="135">
-        <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="U57" s="135">
-        <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="V57" s="135">
-        <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="W57" s="68"/>
-    </row>
-    <row r="58" spans="1:23" s="14" customFormat="1">
-      <c r="C58" s="75"/>
-      <c r="D58" s="67"/>
-      <c r="E58" s="76"/>
-      <c r="F58" s="76"/>
-      <c r="G58" s="76"/>
-      <c r="H58" s="76"/>
-      <c r="I58" s="76"/>
-      <c r="J58" s="76"/>
-      <c r="K58" s="76"/>
-      <c r="L58" s="76"/>
-      <c r="M58" s="76"/>
-      <c r="N58" s="76"/>
-      <c r="O58" s="76"/>
-      <c r="P58" s="76"/>
-      <c r="Q58" s="76"/>
-      <c r="R58" s="76"/>
-      <c r="S58" s="76"/>
-      <c r="T58" s="76"/>
-      <c r="U58" s="76"/>
-      <c r="V58" s="76"/>
-      <c r="W58" s="77"/>
-    </row>
-    <row r="59" spans="1:23">
-      <c r="E59" s="33"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="33"/>
-      <c r="I59" s="33"/>
-      <c r="J59" s="33"/>
-      <c r="K59" s="33"/>
-      <c r="L59" s="33"/>
-      <c r="M59" s="33"/>
-      <c r="N59" s="33"/>
-      <c r="O59" s="33"/>
-      <c r="P59" s="33"/>
-      <c r="Q59" s="33"/>
-      <c r="R59" s="33"/>
-      <c r="S59" s="33"/>
-      <c r="T59" s="33"/>
-      <c r="U59" s="33"/>
-      <c r="V59" s="33"/>
-    </row>
-    <row r="60" spans="1:23">
-      <c r="C60" s="2">
-        <v>1</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="34"/>
-      <c r="J60" s="34"/>
-      <c r="K60" s="34"/>
-      <c r="L60" s="34"/>
-      <c r="M60" s="34"/>
-      <c r="N60" s="34"/>
-      <c r="O60" s="34"/>
-      <c r="P60" s="34"/>
-      <c r="Q60" s="34"/>
-      <c r="R60" s="34"/>
-      <c r="S60" s="34"/>
-      <c r="T60" s="34"/>
-      <c r="U60" s="34"/>
-      <c r="V60" s="34"/>
-    </row>
-    <row r="61" spans="1:23">
-      <c r="C61" s="2">
-        <v>2</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23">
-      <c r="C62" s="2">
-        <v>3</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23">
-      <c r="C63" s="2">
-        <v>4</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23">
-      <c r="C64" s="2">
-        <v>5</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="3:22" hidden="1"/>
-    <row r="66" spans="3:22" ht="12" hidden="1" customHeight="1"/>
-    <row r="67" spans="3:22" hidden="1"/>
-    <row r="68" spans="3:22" hidden="1">
-      <c r="D68" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E68" s="24">
-        <v>1</v>
-      </c>
-      <c r="F68" s="25">
-        <v>1</v>
-      </c>
-      <c r="G68" s="26">
-        <v>1</v>
-      </c>
-      <c r="H68" s="28">
-        <v>1</v>
-      </c>
-      <c r="I68" s="25">
-        <v>1</v>
-      </c>
-      <c r="J68" s="30">
-        <v>2</v>
-      </c>
-      <c r="K68" s="24">
-        <v>2</v>
-      </c>
-      <c r="L68" s="25">
-        <v>2</v>
-      </c>
-      <c r="M68" s="26">
-        <v>3</v>
-      </c>
-      <c r="N68" s="28">
-        <v>3</v>
-      </c>
-      <c r="O68" s="25">
-        <v>3</v>
-      </c>
-      <c r="P68" s="30">
-        <v>4</v>
-      </c>
-      <c r="Q68" s="24">
-        <v>4</v>
-      </c>
-      <c r="R68" s="25">
-        <v>4</v>
-      </c>
-      <c r="S68" s="26">
-        <v>5</v>
-      </c>
-      <c r="T68" s="24">
-        <v>5</v>
-      </c>
-      <c r="U68" s="25">
-        <v>5</v>
-      </c>
-      <c r="V68" s="26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="3:22" hidden="1">
-      <c r="D69" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E69" s="24">
-        <v>1</v>
-      </c>
-      <c r="F69" s="25">
-        <v>1</v>
-      </c>
-      <c r="G69" s="26">
-        <v>1</v>
-      </c>
-      <c r="H69" s="28">
-        <v>2</v>
-      </c>
-      <c r="I69" s="25">
-        <v>2</v>
-      </c>
-      <c r="J69" s="30">
-        <v>2</v>
-      </c>
-      <c r="K69" s="24">
-        <v>3</v>
-      </c>
-      <c r="L69" s="25">
-        <v>3</v>
-      </c>
-      <c r="M69" s="26">
-        <v>3</v>
-      </c>
-      <c r="N69" s="28">
-        <v>4</v>
-      </c>
-      <c r="O69" s="25">
-        <v>4</v>
-      </c>
-      <c r="P69" s="30">
-        <v>4</v>
-      </c>
-      <c r="Q69" s="24">
-        <v>5</v>
-      </c>
-      <c r="R69" s="25">
-        <v>5</v>
-      </c>
-      <c r="S69" s="26">
-        <v>5</v>
-      </c>
-      <c r="T69" s="24">
-        <v>5</v>
-      </c>
-      <c r="U69" s="25">
-        <v>5</v>
-      </c>
-      <c r="V69" s="26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="3:22" hidden="1">
-      <c r="D70" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E70" s="24">
-        <v>1</v>
-      </c>
-      <c r="F70" s="25">
-        <v>2</v>
-      </c>
-      <c r="G70" s="26">
-        <v>2</v>
-      </c>
-      <c r="H70" s="28">
-        <v>2</v>
-      </c>
-      <c r="I70" s="25">
-        <v>3</v>
-      </c>
-      <c r="J70" s="30">
-        <v>3</v>
-      </c>
-      <c r="K70" s="24">
-        <v>3</v>
-      </c>
-      <c r="L70" s="25">
-        <v>4</v>
-      </c>
-      <c r="M70" s="26">
-        <v>4</v>
-      </c>
-      <c r="N70" s="28">
-        <v>4</v>
-      </c>
-      <c r="O70" s="25">
-        <v>5</v>
-      </c>
-      <c r="P70" s="30">
-        <v>5</v>
-      </c>
-      <c r="Q70" s="24">
-        <v>5</v>
-      </c>
-      <c r="R70" s="25">
-        <v>5</v>
-      </c>
-      <c r="S70" s="26">
-        <v>5</v>
-      </c>
-      <c r="T70" s="24">
-        <v>5</v>
-      </c>
-      <c r="U70" s="25">
-        <v>5</v>
-      </c>
-      <c r="V70" s="26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="3:22" hidden="1">
-      <c r="D71" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E71" s="24">
-        <v>2</v>
-      </c>
-      <c r="F71" s="25">
-        <v>2</v>
-      </c>
-      <c r="G71" s="26">
-        <v>3</v>
-      </c>
-      <c r="H71" s="28">
-        <v>3</v>
-      </c>
-      <c r="I71" s="25">
-        <v>4</v>
-      </c>
-      <c r="J71" s="30">
-        <v>4</v>
-      </c>
-      <c r="K71" s="24">
-        <v>5</v>
-      </c>
-      <c r="L71" s="25">
-        <v>5</v>
-      </c>
-      <c r="M71" s="26">
-        <v>5</v>
-      </c>
-      <c r="N71" s="28">
-        <v>5</v>
-      </c>
-      <c r="O71" s="25">
-        <v>5</v>
-      </c>
-      <c r="P71" s="30">
-        <v>5</v>
-      </c>
-      <c r="Q71" s="24">
-        <v>5</v>
-      </c>
-      <c r="R71" s="25">
-        <v>5</v>
-      </c>
-      <c r="S71" s="26">
-        <v>5</v>
-      </c>
-      <c r="T71" s="24">
-        <v>5</v>
-      </c>
-      <c r="U71" s="25">
-        <v>5</v>
-      </c>
-      <c r="V71" s="26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="3:22" hidden="1">
-      <c r="D72" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E72" s="24">
-        <v>5</v>
-      </c>
-      <c r="F72" s="25">
-        <v>5</v>
-      </c>
-      <c r="G72" s="26">
-        <v>5</v>
-      </c>
-      <c r="H72" s="28">
-        <v>5</v>
-      </c>
-      <c r="I72" s="25">
-        <v>5</v>
-      </c>
-      <c r="J72" s="30">
-        <v>5</v>
-      </c>
-      <c r="K72" s="24">
-        <v>5</v>
-      </c>
-      <c r="L72" s="25">
-        <v>5</v>
-      </c>
-      <c r="M72" s="26">
-        <v>5</v>
-      </c>
-      <c r="N72" s="28">
-        <v>5</v>
-      </c>
-      <c r="O72" s="25">
-        <v>5</v>
-      </c>
-      <c r="P72" s="30">
-        <v>5</v>
-      </c>
-      <c r="Q72" s="24">
-        <v>5</v>
-      </c>
-      <c r="R72" s="25">
-        <v>5</v>
-      </c>
-      <c r="S72" s="26">
-        <v>5</v>
-      </c>
-      <c r="T72" s="24">
-        <v>5</v>
-      </c>
-      <c r="U72" s="25">
-        <v>5</v>
-      </c>
-      <c r="V72" s="26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="3:22" hidden="1"/>
-    <row r="74" spans="3:22" hidden="1"/>
-    <row r="75" spans="3:22" hidden="1">
-      <c r="C75" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="76" spans="3:22" hidden="1">
-      <c r="C76" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="77" spans="3:22" hidden="1">
-      <c r="C77" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="78" spans="3:22" hidden="1">
-      <c r="C78" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="79" spans="3:22" hidden="1">
-      <c r="C79" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="80" spans="3:22" hidden="1">
-      <c r="C80" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="81" spans="3:4" hidden="1">
-      <c r="C81" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="82" spans="3:4" hidden="1"/>
-    <row r="83" spans="3:4" hidden="1"/>
-    <row r="84" spans="3:4" hidden="1">
-      <c r="C84" s="2" t="str">
-        <f>CONCATENATE(C75,D75)</f>
-        <v>TraineeI</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="85" spans="3:4" hidden="1">
-      <c r="C85" s="2" t="str">
-        <f>CONCATENATE(C76,D75)</f>
-        <v>AssistenteI</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="86" spans="3:4" hidden="1">
-      <c r="C86" s="2" t="str">
-        <f>CONCATENATE(C76,D76)</f>
-        <v>AssistenteII</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="87" spans="3:4" hidden="1">
-      <c r="C87" s="2" t="str">
-        <f>CONCATENATE(C76,D77)</f>
-        <v>AssistenteIII</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="88" spans="3:4" hidden="1">
-      <c r="C88" s="2" t="str">
-        <f>CONCATENATE(C77,D75)</f>
-        <v>TécnicoI</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="89" spans="3:4" hidden="1">
-      <c r="C89" s="2" t="str">
-        <f>CONCATENATE(C77,D76)</f>
-        <v>TécnicoII</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="90" spans="3:4" hidden="1">
-      <c r="C90" s="2" t="str">
-        <f>CONCATENATE(C77,D77)</f>
-        <v>TécnicoIII</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="91" spans="3:4" hidden="1">
-      <c r="C91" s="2" t="str">
-        <f>CONCATENATE(C78,D75)</f>
-        <v>AnalistaI</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="92" spans="3:4" hidden="1">
-      <c r="C92" s="2" t="str">
-        <f>CONCATENATE(C78,D76)</f>
-        <v>AnalistaII</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="93" spans="3:4" hidden="1">
-      <c r="C93" s="2" t="str">
-        <f>CONCATENATE(C78,D77)</f>
-        <v>AnalistaIII</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="94" spans="3:4" hidden="1">
-      <c r="C94" s="2" t="str">
-        <f>CONCATENATE(C79,D75)</f>
-        <v>CoordenadorI</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="95" spans="3:4" hidden="1">
-      <c r="C95" s="2" t="str">
-        <f>CONCATENATE(C79,D76)</f>
-        <v>CoordenadorII</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="96" spans="3:4" hidden="1">
-      <c r="C96" s="2" t="str">
-        <f>CONCATENATE(C79,D77)</f>
-        <v>CoordenadorIII</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="97" spans="3:4" hidden="1">
-      <c r="C97" s="2" t="str">
-        <f>CONCATENATE(C80,D75)</f>
-        <v>EspecialistaI</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="98" spans="3:4" hidden="1">
-      <c r="C98" s="2" t="str">
-        <f>CONCATENATE(C80,D76)</f>
-        <v>EspecialistaII</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="99" spans="3:4" hidden="1">
-      <c r="C99" s="2" t="str">
-        <f>CONCATENATE(C80,D77)</f>
-        <v>EspecialistaIII</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="100" spans="3:4" hidden="1">
-      <c r="C100" s="2" t="str">
-        <f>CONCATENATE(C81,D75)</f>
-        <v>MasterI</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="101" spans="3:4" hidden="1">
-      <c r="C101" s="2" t="str">
-        <f>CONCATENATE(C81,D76)</f>
-        <v>MasterII</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="102" spans="3:4" hidden="1">
-      <c r="C102" s="2" t="str">
-        <f>CONCATENATE(C81,D77)</f>
-        <v>MasterIII</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="103" spans="3:4" hidden="1"/>
-    <row r="104" spans="3:4" hidden="1"/>
-    <row r="105" spans="3:4" hidden="1"/>
-    <row r="106" spans="3:4"/>
-    <row r="107" spans="3:4"/>
-    <row r="108" spans="3:4"/>
-    <row r="109" spans="3:4"/>
-    <row r="110" spans="3:4"/>
-    <row r="111" spans="3:4"/>
-    <row r="112" spans="3:4"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.15"/>
+    <row r="65" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="66" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="67" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="68" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="69" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="70" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="71" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="72" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="73" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="74" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="75" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="76" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="77" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="78" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="79" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="80" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="81" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="82" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="83" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="84" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="85" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="86" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="87" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="88" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="89" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="90" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="91" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="92" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="93" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="94" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="95" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="96" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="97" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="98" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="99" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="100" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="101" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="102" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="103" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="104" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="105" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="106" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="107" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="108" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="109" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="110" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="111" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="112" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="113" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="114" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="115" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="116" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="117" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="118" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="119" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="120" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="121" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="122" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="123" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="124" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="125" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="126" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="127" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="128" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="129" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="130" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="131" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="132" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="133" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="134" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="135" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="136" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="137" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="138" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="139" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="140" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="141" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="142" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="143" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="144" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="145" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="146" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="147" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="148" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="149" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="150" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="151" hidden="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="T30:V30"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K30:M30"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="C11:C19"/>
@@ -23062,9 +22337,17 @@
     <mergeCell ref="B4:D5"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C8:C10"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="T30:V30"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:M30"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="C60:C64">
+  <conditionalFormatting sqref="C59:C63">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -23100,8 +22383,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32:V55">
-    <cfRule type="colorScale" priority="9">
+  <conditionalFormatting sqref="E32:V54">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -23114,6 +22397,9 @@
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup scale="34" orientation="landscape"/>
+  <ignoredErrors>
+    <ignoredError sqref="E56" formulaRange="1"/>
+  </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -23123,314 +22409,314 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="13" zeroHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="13" zeroHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4" style="80" customWidth="1"/>
-    <col min="2" max="2" width="4" style="117" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" style="74" customWidth="1"/>
-    <col min="4" max="4" width="92" style="118" customWidth="1"/>
-    <col min="5" max="5" width="18" style="98" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="80" hidden="1"/>
+    <col min="1" max="1" width="4" style="69" customWidth="1"/>
+    <col min="2" max="2" width="4" style="106" customWidth="1"/>
+    <col min="3" max="3" width="31.5" style="63" customWidth="1"/>
+    <col min="4" max="4" width="92" style="107" customWidth="1"/>
+    <col min="5" max="5" width="18" style="87" customWidth="1"/>
+    <col min="6" max="16384" width="8.6640625" style="69" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="81" customFormat="1">
-      <c r="A1" s="49"/>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="98"/>
+    <row r="1" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="38"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="87"/>
     </row>
-    <row r="2" spans="1:5" s="81" customFormat="1">
+    <row r="2" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="103" t="s">
-        <v>126</v>
+      <c r="D2" s="76"/>
+      <c r="E2" s="92" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="82" customFormat="1">
+    <row r="3" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="105"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="94"/>
     </row>
-    <row r="4" spans="1:5" s="84" customFormat="1">
+    <row r="4" spans="1:5" s="73" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="B4" s="12"/>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="89" t="s">
-        <v>137</v>
-      </c>
-      <c r="E4" s="89"/>
+      <c r="D4" s="78" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="78"/>
     </row>
-    <row r="5" spans="1:5" s="81" customFormat="1">
+    <row r="5" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="89" t="s">
-        <v>154</v>
-      </c>
-      <c r="E5" s="89"/>
+      <c r="D5" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="78"/>
     </row>
-    <row r="6" spans="1:5" s="82" customFormat="1">
+    <row r="6" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="83"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
     </row>
-    <row r="7" spans="1:5" s="84" customFormat="1" ht="26">
+    <row r="7" spans="1:5" s="73" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="B7" s="12"/>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="89" t="s">
+      <c r="D7" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="89"/>
+      <c r="E7" s="78"/>
     </row>
-    <row r="8" spans="1:5" s="84" customFormat="1" ht="39">
+    <row r="8" spans="1:5" s="73" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="B8" s="12"/>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="89" t="s">
-        <v>135</v>
-      </c>
-      <c r="E8" s="89"/>
+      <c r="D8" s="78" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="78"/>
     </row>
-    <row r="9" spans="1:5" s="81" customFormat="1" ht="26">
+    <row r="9" spans="1:5" s="70" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="90" t="s">
+      <c r="D9" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="90"/>
+      <c r="E9" s="79"/>
     </row>
-    <row r="10" spans="1:5" s="82" customFormat="1">
+    <row r="10" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="83"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
     </row>
-    <row r="11" spans="1:5" s="84" customFormat="1" ht="26">
+    <row r="11" spans="1:5" s="73" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="B11" s="12"/>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="89" t="s">
+      <c r="D11" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="89"/>
+      <c r="E11" s="78"/>
     </row>
-    <row r="12" spans="1:5" s="84" customFormat="1">
+    <row r="12" spans="1:5" s="73" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="12"/>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="78"/>
+    </row>
+    <row r="13" spans="1:5" s="73" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="12"/>
+      <c r="C13" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="78" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="78"/>
+    </row>
+    <row r="14" spans="1:5" s="73" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+      <c r="B14" s="12"/>
+      <c r="C14" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="78"/>
+    </row>
+    <row r="15" spans="1:5" s="73" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+      <c r="B15" s="12"/>
+      <c r="C15" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="78"/>
+    </row>
+    <row r="16" spans="1:5" s="73" customFormat="1" ht="39" x14ac:dyDescent="0.15">
+      <c r="B16" s="12"/>
+      <c r="C16" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="78" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="78"/>
+    </row>
+    <row r="17" spans="2:5" s="73" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+      <c r="B17" s="12"/>
+      <c r="C17" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="78"/>
+    </row>
+    <row r="18" spans="2:5" s="73" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+      <c r="B18" s="12"/>
+      <c r="C18" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="78"/>
+    </row>
+    <row r="19" spans="2:5" s="70" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="2"/>
+      <c r="C19" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="89" t="s">
-        <v>123</v>
-      </c>
-      <c r="E12" s="89"/>
+      <c r="E19" s="80"/>
     </row>
-    <row r="13" spans="1:5" s="84" customFormat="1">
-      <c r="B13" s="12"/>
-      <c r="C13" s="73" t="s">
-        <v>121</v>
-      </c>
-      <c r="D13" s="89" t="s">
-        <v>122</v>
-      </c>
-      <c r="E13" s="89"/>
+    <row r="20" spans="2:5" s="71" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="72"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
     </row>
-    <row r="14" spans="1:5" s="84" customFormat="1">
-      <c r="B14" s="12"/>
-      <c r="C14" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="89" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="89"/>
+    <row r="21" spans="2:5" s="73" customFormat="1" ht="65" x14ac:dyDescent="0.15">
+      <c r="B21" s="12"/>
+      <c r="C21" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="78"/>
     </row>
-    <row r="15" spans="1:5" s="84" customFormat="1" ht="26">
-      <c r="B15" s="12"/>
-      <c r="C15" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="89" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="89"/>
+    <row r="22" spans="2:5" s="73" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+      <c r="B22" s="12"/>
+      <c r="C22" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="78"/>
     </row>
-    <row r="16" spans="1:5" s="84" customFormat="1" ht="26">
-      <c r="B16" s="12"/>
-      <c r="C16" s="73" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="89" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="89"/>
+    <row r="23" spans="2:5" s="73" customFormat="1" ht="39" x14ac:dyDescent="0.15">
+      <c r="B23" s="12"/>
+      <c r="C23" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="78"/>
     </row>
-    <row r="17" spans="2:5" s="84" customFormat="1">
-      <c r="B17" s="12"/>
-      <c r="C17" s="73" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="89" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="89"/>
+    <row r="24" spans="2:5" s="73" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+      <c r="B24" s="12"/>
+      <c r="C24" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="78"/>
     </row>
-    <row r="18" spans="2:5" s="84" customFormat="1">
-      <c r="B18" s="12"/>
-      <c r="C18" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="89" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="89"/>
+    <row r="25" spans="2:5" s="73" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="12"/>
+      <c r="C25" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="78"/>
     </row>
-    <row r="19" spans="2:5" s="81" customFormat="1">
-      <c r="B19" s="2"/>
-      <c r="C19" s="86" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="91" t="s">
-        <v>138</v>
-      </c>
-      <c r="E19" s="91"/>
+    <row r="26" spans="2:5" s="73" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+      <c r="B26" s="12"/>
+      <c r="C26" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="78"/>
     </row>
-    <row r="20" spans="2:5" s="82" customFormat="1">
-      <c r="B20" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="83"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
+    <row r="27" spans="2:5" ht="52" x14ac:dyDescent="0.15">
+      <c r="C27" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="78"/>
     </row>
-    <row r="21" spans="2:5" s="84" customFormat="1" ht="52">
-      <c r="B21" s="12"/>
-      <c r="C21" s="73" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="89" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="89"/>
+    <row r="28" spans="2:5" s="74" customFormat="1" ht="79" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="10"/>
+      <c r="C28" s="81" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28" s="82" t="s">
+        <v>142</v>
+      </c>
+      <c r="E28" s="82"/>
     </row>
-    <row r="22" spans="2:5" s="84" customFormat="1" ht="26">
-      <c r="B22" s="12"/>
-      <c r="C22" s="73" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="89" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="89"/>
+    <row r="29" spans="2:5" s="70" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="2"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="105"/>
     </row>
-    <row r="23" spans="2:5" s="84" customFormat="1" ht="26">
-      <c r="B23" s="12"/>
-      <c r="C23" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="89" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="89"/>
+    <row r="30" spans="2:5" s="70" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="2"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="105"/>
     </row>
-    <row r="24" spans="2:5" s="84" customFormat="1">
-      <c r="B24" s="12"/>
-      <c r="C24" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="89" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="89"/>
+    <row r="31" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E31" s="105"/>
     </row>
-    <row r="25" spans="2:5" s="84" customFormat="1">
-      <c r="B25" s="12"/>
-      <c r="C25" s="73" t="s">
-        <v>153</v>
-      </c>
-      <c r="D25" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="89"/>
+    <row r="32" spans="2:5" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="33" spans="3:3" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="3:3" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="3:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="C35" s="104"/>
     </row>
-    <row r="26" spans="2:5" s="84" customFormat="1">
-      <c r="B26" s="12"/>
-      <c r="C26" s="73" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="89" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="89"/>
-    </row>
-    <row r="27" spans="2:5" ht="39">
-      <c r="C27" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="89" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="89"/>
-    </row>
-    <row r="28" spans="2:5" s="85" customFormat="1" ht="79" thickBot="1">
-      <c r="B28" s="10"/>
-      <c r="C28" s="92" t="s">
-        <v>159</v>
-      </c>
-      <c r="D28" s="93" t="s">
-        <v>160</v>
-      </c>
-      <c r="E28" s="93"/>
-    </row>
-    <row r="29" spans="2:5" s="81" customFormat="1">
-      <c r="B29" s="2"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="116"/>
-    </row>
-    <row r="30" spans="2:5" s="81" customFormat="1">
-      <c r="B30" s="2"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="116"/>
-    </row>
-    <row r="31" spans="2:5" hidden="1">
-      <c r="E31" s="116"/>
-    </row>
-    <row r="32" spans="2:5" hidden="1"/>
-    <row r="33" spans="3:3" hidden="1"/>
-    <row r="34" spans="3:3" hidden="1"/>
-    <row r="35" spans="3:3" hidden="1">
-      <c r="C35" s="115"/>
-    </row>
-    <row r="36" spans="3:3" hidden="1"/>
+    <row r="36" spans="3:3" hidden="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -23444,8 +22730,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AN35"/>
@@ -23455,861 +22741,861 @@
       <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="13" zeroHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="13" zeroHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="119" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" style="120" customWidth="1"/>
-    <col min="3" max="3" width="80.42578125" style="116" customWidth="1"/>
-    <col min="4" max="4" width="18" style="98" customWidth="1"/>
-    <col min="5" max="22" width="0" style="98" hidden="1" customWidth="1"/>
-    <col min="23" max="40" width="0" style="121" hidden="1" customWidth="1"/>
-    <col min="41" max="16384" width="7.5703125" style="121" hidden="1"/>
+    <col min="1" max="1" width="3.5" style="108" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="109" customWidth="1"/>
+    <col min="3" max="3" width="80.5" style="105" customWidth="1"/>
+    <col min="4" max="4" width="18" style="87" customWidth="1"/>
+    <col min="5" max="22" width="0" style="87" hidden="1" customWidth="1"/>
+    <col min="23" max="40" width="0" style="110" hidden="1" customWidth="1"/>
+    <col min="41" max="16384" width="7.5" style="110" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="97" customFormat="1">
-      <c r="A1" s="49"/>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
+    <row r="1" spans="1:22" s="86" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="38"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
     </row>
-    <row r="2" spans="1:22" s="100" customFormat="1">
-      <c r="A2" s="50" t="s">
+    <row r="2" spans="1:22" s="89" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="92" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="92" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="85"/>
+      <c r="U2" s="85"/>
+      <c r="V2" s="85"/>
+    </row>
+    <row r="3" spans="1:22" s="93" customFormat="1" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="111" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+    </row>
+    <row r="4" spans="1:22" s="46" customFormat="1" ht="104" x14ac:dyDescent="0.15">
+      <c r="A4" s="41"/>
+      <c r="B4" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="98" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+    </row>
+    <row r="5" spans="1:22" s="91" customFormat="1" ht="52" x14ac:dyDescent="0.15">
+      <c r="A5" s="47"/>
+      <c r="B5" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="99" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="99" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="90"/>
+      <c r="T5" s="90"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="90"/>
+    </row>
+    <row r="6" spans="1:22" s="91" customFormat="1" ht="52" x14ac:dyDescent="0.15">
+      <c r="A6" s="47"/>
+      <c r="B6" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="99" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="99" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="90"/>
+      <c r="P6" s="90"/>
+      <c r="Q6" s="90"/>
+      <c r="R6" s="90"/>
+      <c r="S6" s="90"/>
+      <c r="T6" s="90"/>
+      <c r="U6" s="90"/>
+      <c r="V6" s="90"/>
+    </row>
+    <row r="7" spans="1:22" s="91" customFormat="1" ht="78" x14ac:dyDescent="0.15">
+      <c r="A7" s="47"/>
+      <c r="B7" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="99" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="99" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="90"/>
+      <c r="O7" s="90"/>
+      <c r="P7" s="90"/>
+      <c r="Q7" s="90"/>
+      <c r="R7" s="90"/>
+      <c r="S7" s="90"/>
+      <c r="T7" s="90"/>
+      <c r="U7" s="90"/>
+      <c r="V7" s="90"/>
+    </row>
+    <row r="8" spans="1:22" s="91" customFormat="1" ht="39" x14ac:dyDescent="0.15">
+      <c r="A8" s="47"/>
+      <c r="B8" s="103" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="99" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="99"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="90"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="90"/>
+      <c r="P8" s="90"/>
+      <c r="Q8" s="90"/>
+      <c r="R8" s="90"/>
+      <c r="S8" s="90"/>
+      <c r="T8" s="90"/>
+      <c r="U8" s="90"/>
+      <c r="V8" s="90"/>
+    </row>
+    <row r="9" spans="1:22" s="91" customFormat="1" ht="91" x14ac:dyDescent="0.15">
+      <c r="A9" s="47"/>
+      <c r="B9" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="99" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="99" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="90"/>
+      <c r="R9" s="90"/>
+      <c r="S9" s="90"/>
+      <c r="T9" s="90"/>
+      <c r="U9" s="90"/>
+      <c r="V9" s="90"/>
+    </row>
+    <row r="10" spans="1:22" s="91" customFormat="1" ht="65" x14ac:dyDescent="0.15">
+      <c r="A10" s="47"/>
+      <c r="B10" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="99" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="99" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="90"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="90"/>
+      <c r="R10" s="90"/>
+      <c r="S10" s="90"/>
+      <c r="T10" s="90"/>
+      <c r="U10" s="90"/>
+      <c r="V10" s="90"/>
+    </row>
+    <row r="11" spans="1:22" s="91" customFormat="1" ht="52" x14ac:dyDescent="0.15">
+      <c r="A11" s="47"/>
+      <c r="B11" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="99" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="99" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="90"/>
+      <c r="N11" s="90"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="90"/>
+      <c r="Q11" s="90"/>
+      <c r="R11" s="90"/>
+      <c r="S11" s="90"/>
+      <c r="T11" s="90"/>
+      <c r="U11" s="90"/>
+      <c r="V11" s="90"/>
+    </row>
+    <row r="12" spans="1:22" s="91" customFormat="1" ht="52" x14ac:dyDescent="0.15">
+      <c r="A12" s="47"/>
+      <c r="B12" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="99" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="90"/>
+      <c r="N12" s="90"/>
+      <c r="O12" s="90"/>
+      <c r="P12" s="90"/>
+      <c r="Q12" s="90"/>
+      <c r="R12" s="90"/>
+      <c r="S12" s="90"/>
+      <c r="T12" s="90"/>
+      <c r="U12" s="90"/>
+      <c r="V12" s="90"/>
+    </row>
+    <row r="13" spans="1:22" s="91" customFormat="1" ht="52" x14ac:dyDescent="0.15">
+      <c r="A13" s="47"/>
+      <c r="B13" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="99" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="99" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="90"/>
+      <c r="N13" s="90"/>
+      <c r="O13" s="90"/>
+      <c r="P13" s="90"/>
+      <c r="Q13" s="90"/>
+      <c r="R13" s="90"/>
+      <c r="S13" s="90"/>
+      <c r="T13" s="90"/>
+      <c r="U13" s="90"/>
+      <c r="V13" s="90"/>
+    </row>
+    <row r="14" spans="1:22" s="91" customFormat="1" ht="65" x14ac:dyDescent="0.15">
+      <c r="A14" s="47"/>
+      <c r="B14" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="99" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="99" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="90"/>
+      <c r="P14" s="90"/>
+      <c r="Q14" s="90"/>
+      <c r="R14" s="90"/>
+      <c r="S14" s="90"/>
+      <c r="T14" s="90"/>
+      <c r="U14" s="90"/>
+      <c r="V14" s="90"/>
+    </row>
+    <row r="15" spans="1:22" s="91" customFormat="1" ht="65" x14ac:dyDescent="0.15">
+      <c r="A15" s="47"/>
+      <c r="B15" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="99" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="99" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="90"/>
+      <c r="N15" s="90"/>
+      <c r="O15" s="90"/>
+      <c r="P15" s="90"/>
+      <c r="Q15" s="90"/>
+      <c r="R15" s="90"/>
+      <c r="S15" s="90"/>
+      <c r="T15" s="90"/>
+      <c r="U15" s="90"/>
+      <c r="V15" s="90"/>
+    </row>
+    <row r="16" spans="1:22" s="91" customFormat="1" ht="52" x14ac:dyDescent="0.15">
+      <c r="A16" s="47"/>
+      <c r="B16" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="101" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="99" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="90"/>
+      <c r="N16" s="90"/>
+      <c r="O16" s="90"/>
+      <c r="P16" s="90"/>
+      <c r="Q16" s="90"/>
+      <c r="R16" s="90"/>
+      <c r="S16" s="90"/>
+      <c r="T16" s="90"/>
+      <c r="U16" s="90"/>
+      <c r="V16" s="90"/>
+    </row>
+    <row r="17" spans="1:22" s="91" customFormat="1" ht="91" x14ac:dyDescent="0.15">
+      <c r="A17" s="47"/>
+      <c r="B17" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="101" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="99" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="90"/>
+      <c r="P17" s="90"/>
+      <c r="Q17" s="90"/>
+      <c r="R17" s="90"/>
+      <c r="S17" s="90"/>
+      <c r="T17" s="90"/>
+      <c r="U17" s="90"/>
+      <c r="V17" s="90"/>
+    </row>
+    <row r="18" spans="1:22" s="91" customFormat="1" ht="91" x14ac:dyDescent="0.15">
+      <c r="A18" s="47"/>
+      <c r="B18" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="99" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="99" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="90"/>
+      <c r="O18" s="90"/>
+      <c r="P18" s="90"/>
+      <c r="Q18" s="90"/>
+      <c r="R18" s="90"/>
+      <c r="S18" s="90"/>
+      <c r="T18" s="90"/>
+      <c r="U18" s="90"/>
+      <c r="V18" s="90"/>
+    </row>
+    <row r="19" spans="1:22" s="91" customFormat="1" ht="52" x14ac:dyDescent="0.15">
+      <c r="A19" s="47"/>
+      <c r="B19" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="99" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="99" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="90"/>
+      <c r="O19" s="90"/>
+      <c r="P19" s="90"/>
+      <c r="Q19" s="90"/>
+      <c r="R19" s="90"/>
+      <c r="S19" s="90"/>
+      <c r="T19" s="90"/>
+      <c r="U19" s="90"/>
+      <c r="V19" s="90"/>
+    </row>
+    <row r="20" spans="1:22" s="50" customFormat="1" ht="52" x14ac:dyDescent="0.15">
+      <c r="A20" s="47"/>
+      <c r="B20" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="99" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="99" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="49"/>
+      <c r="V20" s="49"/>
+    </row>
+    <row r="21" spans="1:22" s="50" customFormat="1" ht="117" x14ac:dyDescent="0.15">
+      <c r="A21" s="47"/>
+      <c r="B21" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="99" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="99" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="49"/>
+      <c r="V21" s="49"/>
+    </row>
+    <row r="22" spans="1:22" s="50" customFormat="1" ht="104" x14ac:dyDescent="0.15">
+      <c r="A22" s="47"/>
+      <c r="B22" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="99" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="99" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="49"/>
+      <c r="U22" s="49"/>
+      <c r="V22" s="49"/>
+    </row>
+    <row r="23" spans="1:22" s="50" customFormat="1" ht="104" x14ac:dyDescent="0.15">
+      <c r="A23" s="47"/>
+      <c r="B23" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="99" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="103" t="s">
-        <v>125</v>
-      </c>
-      <c r="D2" s="103" t="s">
-        <v>126</v>
-      </c>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="96"/>
-      <c r="S2" s="96"/>
-      <c r="T2" s="96"/>
-      <c r="U2" s="96"/>
-      <c r="V2" s="96"/>
+      <c r="D23" s="99" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="49"/>
+      <c r="U23" s="49"/>
+      <c r="V23" s="49"/>
     </row>
-    <row r="3" spans="1:22" s="104" customFormat="1" ht="14" customHeight="1" thickBot="1">
-      <c r="B3" s="122" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="108"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="108"/>
-      <c r="S3" s="108"/>
-      <c r="T3" s="108"/>
-      <c r="U3" s="108"/>
-      <c r="V3" s="108"/>
+    <row r="24" spans="1:22" s="50" customFormat="1" ht="39" x14ac:dyDescent="0.15">
+      <c r="A24" s="47"/>
+      <c r="B24" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="99" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="99" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="49"/>
+      <c r="U24" s="49"/>
+      <c r="V24" s="49"/>
     </row>
-    <row r="4" spans="1:22" s="57" customFormat="1" ht="78">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53" t="s">
-        <v>164</v>
-      </c>
-      <c r="C4" s="109" t="s">
-        <v>163</v>
-      </c>
-      <c r="D4" s="109" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="56"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="56"/>
+    <row r="25" spans="1:22" s="50" customFormat="1" ht="78" x14ac:dyDescent="0.15">
+      <c r="A25" s="47"/>
+      <c r="B25" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="99" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="99" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="49"/>
+      <c r="U25" s="49"/>
+      <c r="V25" s="49"/>
     </row>
-    <row r="5" spans="1:22" s="102" customFormat="1" ht="39">
-      <c r="A5" s="58"/>
-      <c r="B5" s="59" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" s="110" t="s">
-        <v>140</v>
-      </c>
-      <c r="D5" s="110" t="s">
-        <v>128</v>
-      </c>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="101"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="101"/>
-      <c r="N5" s="101"/>
-      <c r="O5" s="101"/>
-      <c r="P5" s="101"/>
-      <c r="Q5" s="101"/>
-      <c r="R5" s="101"/>
-      <c r="S5" s="101"/>
-      <c r="T5" s="101"/>
-      <c r="U5" s="101"/>
-      <c r="V5" s="101"/>
+    <row r="26" spans="1:22" s="50" customFormat="1" ht="78" x14ac:dyDescent="0.15">
+      <c r="A26" s="47"/>
+      <c r="B26" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="99" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="99" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="49"/>
+      <c r="V26" s="49"/>
     </row>
-    <row r="6" spans="1:22" s="102" customFormat="1" ht="52">
-      <c r="A6" s="58"/>
-      <c r="B6" s="59" t="s">
-        <v>143</v>
-      </c>
-      <c r="C6" s="110" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" s="110" t="s">
-        <v>128</v>
-      </c>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="101"/>
-      <c r="N6" s="101"/>
-      <c r="O6" s="101"/>
-      <c r="P6" s="101"/>
-      <c r="Q6" s="101"/>
-      <c r="R6" s="101"/>
-      <c r="S6" s="101"/>
-      <c r="T6" s="101"/>
-      <c r="U6" s="101"/>
-      <c r="V6" s="101"/>
+    <row r="27" spans="1:22" s="50" customFormat="1" ht="39" x14ac:dyDescent="0.15">
+      <c r="A27" s="47"/>
+      <c r="B27" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="101" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" s="99" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="49"/>
+      <c r="U27" s="49"/>
+      <c r="V27" s="49"/>
     </row>
-    <row r="7" spans="1:22" s="102" customFormat="1" ht="65">
-      <c r="A7" s="58"/>
-      <c r="B7" s="59" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" s="110" t="s">
-        <v>139</v>
-      </c>
-      <c r="D7" s="110" t="s">
-        <v>128</v>
-      </c>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="101"/>
-      <c r="O7" s="101"/>
-      <c r="P7" s="101"/>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="101"/>
-      <c r="S7" s="101"/>
-      <c r="T7" s="101"/>
-      <c r="U7" s="101"/>
-      <c r="V7" s="101"/>
+    <row r="28" spans="1:22" s="113" customFormat="1" ht="53" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="51"/>
+      <c r="B28" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="102" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="100" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="112"/>
+      <c r="J28" s="112"/>
+      <c r="K28" s="112"/>
+      <c r="L28" s="112"/>
+      <c r="M28" s="112"/>
+      <c r="N28" s="112"/>
+      <c r="O28" s="112"/>
+      <c r="P28" s="112"/>
+      <c r="Q28" s="112"/>
+      <c r="R28" s="112"/>
+      <c r="S28" s="112"/>
+      <c r="T28" s="112"/>
+      <c r="U28" s="112"/>
+      <c r="V28" s="112"/>
     </row>
-    <row r="8" spans="1:22" s="102" customFormat="1" ht="26">
-      <c r="A8" s="58"/>
-      <c r="B8" s="114" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" s="110" t="s">
-        <v>158</v>
-      </c>
-      <c r="D8" s="110"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="101"/>
-      <c r="P8" s="101"/>
-      <c r="Q8" s="101"/>
-      <c r="R8" s="101"/>
-      <c r="S8" s="101"/>
-      <c r="T8" s="101"/>
-      <c r="U8" s="101"/>
-      <c r="V8" s="101"/>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="C29" s="109"/>
     </row>
-    <row r="9" spans="1:22" s="102" customFormat="1" ht="78">
-      <c r="A9" s="58"/>
-      <c r="B9" s="59" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" s="110" t="s">
-        <v>165</v>
-      </c>
-      <c r="D9" s="110" t="s">
-        <v>167</v>
-      </c>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="101"/>
-      <c r="M9" s="101"/>
-      <c r="N9" s="101"/>
-      <c r="O9" s="101"/>
-      <c r="P9" s="101"/>
-      <c r="Q9" s="101"/>
-      <c r="R9" s="101"/>
-      <c r="S9" s="101"/>
-      <c r="T9" s="101"/>
-      <c r="U9" s="101"/>
-      <c r="V9" s="101"/>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="C30" s="109"/>
     </row>
-    <row r="10" spans="1:22" s="102" customFormat="1" ht="52">
-      <c r="A10" s="58"/>
-      <c r="B10" s="59" t="s">
-        <v>145</v>
-      </c>
-      <c r="C10" s="110" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="110" t="s">
-        <v>166</v>
-      </c>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="101"/>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="101"/>
-      <c r="P10" s="101"/>
-      <c r="Q10" s="101"/>
-      <c r="R10" s="101"/>
-      <c r="S10" s="101"/>
-      <c r="T10" s="101"/>
-      <c r="U10" s="101"/>
-      <c r="V10" s="101"/>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="C31" s="109"/>
     </row>
-    <row r="11" spans="1:22" s="102" customFormat="1" ht="39">
-      <c r="A11" s="58"/>
-      <c r="B11" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="110" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="110" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="101"/>
-      <c r="S11" s="101"/>
-      <c r="T11" s="101"/>
-      <c r="U11" s="101"/>
-      <c r="V11" s="101"/>
+    <row r="32" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
+      <c r="C32" s="109"/>
     </row>
-    <row r="12" spans="1:22" s="102" customFormat="1" ht="39">
-      <c r="A12" s="58"/>
-      <c r="B12" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="110" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="110" t="s">
-        <v>129</v>
-      </c>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="101"/>
-      <c r="P12" s="101"/>
-      <c r="Q12" s="101"/>
-      <c r="R12" s="101"/>
-      <c r="S12" s="101"/>
-      <c r="T12" s="101"/>
-      <c r="U12" s="101"/>
-      <c r="V12" s="101"/>
+    <row r="33" spans="3:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="C33" s="109"/>
     </row>
-    <row r="13" spans="1:22" s="102" customFormat="1" ht="39">
-      <c r="A13" s="58"/>
-      <c r="B13" s="59" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" s="110" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="110" t="s">
-        <v>129</v>
-      </c>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="101"/>
-      <c r="P13" s="101"/>
-      <c r="Q13" s="101"/>
-      <c r="R13" s="101"/>
-      <c r="S13" s="101"/>
-      <c r="T13" s="101"/>
-      <c r="U13" s="101"/>
-      <c r="V13" s="101"/>
-    </row>
-    <row r="14" spans="1:22" s="102" customFormat="1" ht="52">
-      <c r="A14" s="58"/>
-      <c r="B14" s="59" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="110" t="s">
-        <v>115</v>
-      </c>
-      <c r="D14" s="110" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="101"/>
-      <c r="P14" s="101"/>
-      <c r="Q14" s="101"/>
-      <c r="R14" s="101"/>
-      <c r="S14" s="101"/>
-      <c r="T14" s="101"/>
-      <c r="U14" s="101"/>
-      <c r="V14" s="101"/>
-    </row>
-    <row r="15" spans="1:22" s="102" customFormat="1" ht="52">
-      <c r="A15" s="58"/>
-      <c r="B15" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="110" t="s">
-        <v>116</v>
-      </c>
-      <c r="D15" s="110" t="s">
-        <v>131</v>
-      </c>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="101"/>
-      <c r="P15" s="101"/>
-      <c r="Q15" s="101"/>
-      <c r="R15" s="101"/>
-      <c r="S15" s="101"/>
-      <c r="T15" s="101"/>
-      <c r="U15" s="101"/>
-      <c r="V15" s="101"/>
-    </row>
-    <row r="16" spans="1:22" s="102" customFormat="1" ht="52">
-      <c r="A16" s="58"/>
-      <c r="B16" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="112" t="s">
-        <v>136</v>
-      </c>
-      <c r="D16" s="110" t="s">
-        <v>128</v>
-      </c>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="101"/>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="101"/>
-      <c r="R16" s="101"/>
-      <c r="S16" s="101"/>
-      <c r="T16" s="101"/>
-      <c r="U16" s="101"/>
-      <c r="V16" s="101"/>
-    </row>
-    <row r="17" spans="1:22" s="102" customFormat="1" ht="78">
-      <c r="A17" s="58"/>
-      <c r="B17" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="112" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="110" t="s">
-        <v>132</v>
-      </c>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="101"/>
-      <c r="P17" s="101"/>
-      <c r="Q17" s="101"/>
-      <c r="R17" s="101"/>
-      <c r="S17" s="101"/>
-      <c r="T17" s="101"/>
-      <c r="U17" s="101"/>
-      <c r="V17" s="101"/>
-    </row>
-    <row r="18" spans="1:22" s="102" customFormat="1" ht="78">
-      <c r="A18" s="58"/>
-      <c r="B18" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="110" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="110" t="s">
-        <v>128</v>
-      </c>
-      <c r="E18" s="98"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="101"/>
-      <c r="J18" s="101"/>
-      <c r="K18" s="101"/>
-      <c r="L18" s="101"/>
-      <c r="M18" s="101"/>
-      <c r="N18" s="101"/>
-      <c r="O18" s="101"/>
-      <c r="P18" s="101"/>
-      <c r="Q18" s="101"/>
-      <c r="R18" s="101"/>
-      <c r="S18" s="101"/>
-      <c r="T18" s="101"/>
-      <c r="U18" s="101"/>
-      <c r="V18" s="101"/>
-    </row>
-    <row r="19" spans="1:22" s="102" customFormat="1" ht="52">
-      <c r="A19" s="58"/>
-      <c r="B19" s="59" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" s="110" t="s">
-        <v>112</v>
-      </c>
-      <c r="D19" s="110" t="s">
-        <v>128</v>
-      </c>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="101"/>
-      <c r="J19" s="101"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="101"/>
-      <c r="M19" s="101"/>
-      <c r="N19" s="101"/>
-      <c r="O19" s="101"/>
-      <c r="P19" s="101"/>
-      <c r="Q19" s="101"/>
-      <c r="R19" s="101"/>
-      <c r="S19" s="101"/>
-      <c r="T19" s="101"/>
-      <c r="U19" s="101"/>
-      <c r="V19" s="101"/>
-    </row>
-    <row r="20" spans="1:22" s="61" customFormat="1" ht="39">
-      <c r="A20" s="58"/>
-      <c r="B20" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="110" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="110" t="s">
-        <v>128</v>
-      </c>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="60"/>
-      <c r="O20" s="60"/>
-      <c r="P20" s="60"/>
-      <c r="Q20" s="60"/>
-      <c r="R20" s="60"/>
-      <c r="S20" s="60"/>
-      <c r="T20" s="60"/>
-      <c r="U20" s="60"/>
-      <c r="V20" s="60"/>
-    </row>
-    <row r="21" spans="1:22" s="61" customFormat="1" ht="91">
-      <c r="A21" s="58"/>
-      <c r="B21" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" s="110" t="s">
-        <v>146</v>
-      </c>
-      <c r="D21" s="110" t="s">
-        <v>128</v>
-      </c>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="60"/>
-      <c r="N21" s="60"/>
-      <c r="O21" s="60"/>
-      <c r="P21" s="60"/>
-      <c r="Q21" s="60"/>
-      <c r="R21" s="60"/>
-      <c r="S21" s="60"/>
-      <c r="T21" s="60"/>
-      <c r="U21" s="60"/>
-      <c r="V21" s="60"/>
-    </row>
-    <row r="22" spans="1:22" s="61" customFormat="1" ht="91">
-      <c r="A22" s="58"/>
-      <c r="B22" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" s="110" t="s">
-        <v>101</v>
-      </c>
-      <c r="D22" s="110" t="s">
-        <v>133</v>
-      </c>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="60"/>
-      <c r="N22" s="60"/>
-      <c r="O22" s="60"/>
-      <c r="P22" s="60"/>
-      <c r="Q22" s="60"/>
-      <c r="R22" s="60"/>
-      <c r="S22" s="60"/>
-      <c r="T22" s="60"/>
-      <c r="U22" s="60"/>
-      <c r="V22" s="60"/>
-    </row>
-    <row r="23" spans="1:22" s="61" customFormat="1" ht="91">
-      <c r="A23" s="58"/>
-      <c r="B23" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" s="110" t="s">
-        <v>103</v>
-      </c>
-      <c r="D23" s="110" t="s">
-        <v>134</v>
-      </c>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="60"/>
-      <c r="P23" s="60"/>
-      <c r="Q23" s="60"/>
-      <c r="R23" s="60"/>
-      <c r="S23" s="60"/>
-      <c r="T23" s="60"/>
-      <c r="U23" s="60"/>
-      <c r="V23" s="60"/>
-    </row>
-    <row r="24" spans="1:22" s="61" customFormat="1" ht="26">
-      <c r="A24" s="58"/>
-      <c r="B24" s="59" t="s">
-        <v>151</v>
-      </c>
-      <c r="C24" s="110" t="s">
-        <v>156</v>
-      </c>
-      <c r="D24" s="110" t="s">
-        <v>157</v>
-      </c>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="60"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="60"/>
-      <c r="P24" s="60"/>
-      <c r="Q24" s="60"/>
-      <c r="R24" s="60"/>
-      <c r="S24" s="60"/>
-      <c r="T24" s="60"/>
-      <c r="U24" s="60"/>
-      <c r="V24" s="60"/>
-    </row>
-    <row r="25" spans="1:22" s="61" customFormat="1" ht="65">
-      <c r="A25" s="58"/>
-      <c r="B25" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" s="110" t="s">
-        <v>105</v>
-      </c>
-      <c r="D25" s="110" t="s">
-        <v>128</v>
-      </c>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="60"/>
-      <c r="N25" s="60"/>
-      <c r="O25" s="60"/>
-      <c r="P25" s="60"/>
-      <c r="Q25" s="60"/>
-      <c r="R25" s="60"/>
-      <c r="S25" s="60"/>
-      <c r="T25" s="60"/>
-      <c r="U25" s="60"/>
-      <c r="V25" s="60"/>
-    </row>
-    <row r="26" spans="1:22" s="61" customFormat="1" ht="65">
-      <c r="A26" s="58"/>
-      <c r="B26" s="59" t="s">
-        <v>106</v>
-      </c>
-      <c r="C26" s="110" t="s">
-        <v>107</v>
-      </c>
-      <c r="D26" s="110" t="s">
-        <v>128</v>
-      </c>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="60"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="60"/>
-      <c r="P26" s="60"/>
-      <c r="Q26" s="60"/>
-      <c r="R26" s="60"/>
-      <c r="S26" s="60"/>
-      <c r="T26" s="60"/>
-      <c r="U26" s="60"/>
-      <c r="V26" s="60"/>
-    </row>
-    <row r="27" spans="1:22" s="61" customFormat="1" ht="26">
-      <c r="A27" s="58"/>
-      <c r="B27" s="59" t="s">
-        <v>162</v>
-      </c>
-      <c r="C27" s="112" t="s">
-        <v>155</v>
-      </c>
-      <c r="D27" s="110" t="s">
-        <v>129</v>
-      </c>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="60"/>
-      <c r="N27" s="60"/>
-      <c r="O27" s="60"/>
-      <c r="P27" s="60"/>
-      <c r="Q27" s="60"/>
-      <c r="R27" s="60"/>
-      <c r="S27" s="60"/>
-      <c r="T27" s="60"/>
-      <c r="U27" s="60"/>
-      <c r="V27" s="60"/>
-    </row>
-    <row r="28" spans="1:22" s="124" customFormat="1" ht="40" thickBot="1">
-      <c r="A28" s="62"/>
-      <c r="B28" s="63" t="s">
-        <v>148</v>
-      </c>
-      <c r="C28" s="113" t="s">
-        <v>108</v>
-      </c>
-      <c r="D28" s="111" t="s">
-        <v>129</v>
-      </c>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="123"/>
-      <c r="J28" s="123"/>
-      <c r="K28" s="123"/>
-      <c r="L28" s="123"/>
-      <c r="M28" s="123"/>
-      <c r="N28" s="123"/>
-      <c r="O28" s="123"/>
-      <c r="P28" s="123"/>
-      <c r="Q28" s="123"/>
-      <c r="R28" s="123"/>
-      <c r="S28" s="123"/>
-      <c r="T28" s="123"/>
-      <c r="U28" s="123"/>
-      <c r="V28" s="123"/>
-    </row>
-    <row r="29" spans="1:22">
-      <c r="C29" s="120"/>
-    </row>
-    <row r="30" spans="1:22">
-      <c r="C30" s="120"/>
-    </row>
-    <row r="31" spans="1:22">
-      <c r="C31" s="120"/>
-    </row>
-    <row r="32" spans="1:22" hidden="1">
-      <c r="C32" s="120"/>
-    </row>
-    <row r="33" spans="3:3" hidden="1">
-      <c r="C33" s="120"/>
-    </row>
-    <row r="34" spans="3:3"/>
-    <row r="35" spans="3:3"/>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
